--- a/MVST/MVST.xlsx
+++ b/MVST/MVST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/MVST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="958" documentId="11_8A5B05B347CCB396D24CFD36F34A433842E90081" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7A1B68-613B-4E1E-A9C4-00700AE91DAA}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="11_8A5B05B347CCB396D24CFD36F34A433842E90081" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09413669-6E85-442B-856E-7AFFBC399BDF}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2030" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="508">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -1462,9 +1462,6 @@
   </si>
   <si>
     <t xml:space="preserve">Per/Share </t>
-  </si>
-  <si>
-    <t>Rev/Share</t>
   </si>
   <si>
     <t>Cash/Share</t>
@@ -1686,6 +1683,18 @@
   <si>
     <t>Q421</t>
   </si>
+  <si>
+    <t>Rev/Share (TTM)</t>
+  </si>
+  <si>
+    <t>EPS (TTM)</t>
+  </si>
+  <si>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>Book/Share</t>
+  </si>
 </sst>
 </file>
 
@@ -1694,7 +1703,7 @@
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1805,7 +1814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1927,22 +1936,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2045,35 +2043,30 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,6 +2137,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2581,108 +2578,108 @@
     <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
         <v>463</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65" t="s">
-        <v>459</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>461</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
-        <v>462</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
-        <v>465</v>
+      <c r="A8" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="B8" s="5">
         <v>1535</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="74" t="s">
         <v>466</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-    </row>
-    <row r="14" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="74" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="74" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="74" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E23" s="10">
         <v>2018</v>
@@ -2740,26 +2737,26 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="81" t="s">
-        <v>473</v>
-      </c>
-      <c r="F24" s="81">
+    <row r="24" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="75">
         <v>17</v>
       </c>
-      <c r="O24" s="81">
+      <c r="O24" s="75">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2769,128 +2766,128 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B28" s="34">
         <v>0.34</v>
       </c>
       <c r="C28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B29" s="34">
         <v>0.14000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B30" s="34">
         <v>0.12</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B31" s="34">
         <v>0.1</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B32" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B33" s="34">
         <v>0.05</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="34">
         <v>0.04</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B35" s="34">
         <v>0.03</v>
       </c>
       <c r="C35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B36" s="34">
         <v>0.02</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B37" s="34">
         <v>0.01</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" s="36">
         <v>0.08</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="77" t="s">
-        <v>491</v>
+      <c r="A39" t="s">
+        <v>490</v>
       </c>
       <c r="B39" s="34">
         <f>SUM(B28:B38)</f>
@@ -2944,10 +2941,10 @@
   <dimension ref="A1:CH185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="M98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK33" sqref="AK33"/>
+      <selection pane="bottomRight" activeCell="Y156" sqref="Y156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2984,40 +2981,40 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L1" t="s">
         <v>493</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>494</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>495</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" t="s">
         <v>497</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="Q1" t="s">
         <v>498</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="R1" t="s">
         <v>499</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="S1" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" t="s">
         <v>501</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="U1" t="s">
         <v>502</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="V1" t="s">
         <v>503</v>
-      </c>
-      <c r="V1" s="77" t="s">
-        <v>504</v>
       </c>
       <c r="W1" s="40" t="s">
         <v>430</v>
@@ -3141,90 +3138,90 @@
       <c r="AB3" s="39">
         <v>45107</v>
       </c>
-      <c r="AL3" s="66">
+      <c r="AL3" s="64">
         <f t="shared" ref="AL3:AZ3" si="0">AM3-1</f>
         <v>2006</v>
       </c>
-      <c r="AM3" s="66">
+      <c r="AM3" s="64">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="AN3" s="66">
+      <c r="AN3" s="64">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="AO3" s="66">
+      <c r="AO3" s="64">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="AP3" s="66">
+      <c r="AP3" s="64">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="AQ3" s="66">
+      <c r="AQ3" s="64">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="AR3" s="66">
+      <c r="AR3" s="64">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="AS3" s="66">
+      <c r="AS3" s="64">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AT3" s="66">
+      <c r="AT3" s="64">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AU3" s="66">
+      <c r="AU3" s="64">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AV3" s="66">
+      <c r="AV3" s="64">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AW3" s="66">
+      <c r="AW3" s="64">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AX3" s="66">
+      <c r="AX3" s="64">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AY3" s="66">
+      <c r="AY3" s="64">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AZ3" s="66">
+      <c r="AZ3" s="64">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="BA3" s="66">
+      <c r="BA3" s="64">
         <v>2021</v>
       </c>
-      <c r="BB3" s="66">
+      <c r="BB3" s="64">
         <f t="shared" ref="BB3:BG3" si="1">BA3+1</f>
         <v>2022</v>
       </c>
-      <c r="BC3" s="66">
+      <c r="BC3" s="64">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="BD3" s="66">
+      <c r="BD3" s="64">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="BE3" s="66">
+      <c r="BE3" s="64">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="BF3" s="66">
+      <c r="BF3" s="64">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="BG3" s="66">
+      <c r="BG3" s="64">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
@@ -3247,7 +3244,7 @@
       <c r="X4" s="63"/>
       <c r="Y4" s="63"/>
       <c r="Z4" s="63"/>
-      <c r="AA4" s="68"/>
+      <c r="AA4" s="65"/>
       <c r="AB4" s="63"/>
       <c r="AC4" s="63"/>
       <c r="AD4" s="63"/>
@@ -3257,183 +3254,183 @@
       <c r="AH4" s="63"/>
       <c r="AI4" s="63"/>
     </row>
-    <row r="5" spans="2:59" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85" t="s">
+    <row r="5" spans="2:59" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="76" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="O5" s="86">
+      <c r="E5" s="77"/>
+      <c r="O5" s="77">
         <v>10.1</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="76">
         <v>10.27</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="76">
         <v>10.27</v>
       </c>
-      <c r="R5" s="85">
+      <c r="R5" s="76">
         <v>20.93</v>
       </c>
-      <c r="S5" s="86">
+      <c r="S5" s="77">
         <v>25.2</v>
       </c>
-      <c r="T5" s="85">
+      <c r="T5" s="76">
         <v>14.29</v>
       </c>
-      <c r="U5" s="85">
+      <c r="U5" s="76">
         <v>15.91</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="76">
         <v>10.25</v>
       </c>
-      <c r="W5" s="86">
+      <c r="W5" s="77">
         <v>9.5399999999999991</v>
       </c>
-      <c r="X5" s="85">
+      <c r="X5" s="76">
         <v>6.68</v>
       </c>
-      <c r="Y5" s="85">
+      <c r="Y5" s="76">
         <v>3.5</v>
       </c>
-      <c r="Z5" s="85">
+      <c r="Z5" s="76">
         <v>2.77</v>
       </c>
-      <c r="AA5" s="86">
+      <c r="AA5" s="77">
         <v>1.83</v>
       </c>
-      <c r="AB5" s="85">
+      <c r="AB5" s="76">
         <v>2.46</v>
       </c>
-      <c r="AY5" s="85">
+      <c r="AY5" s="76">
         <v>11.72</v>
       </c>
-      <c r="AZ5" s="85">
+      <c r="AZ5" s="76">
         <v>20.93</v>
       </c>
-      <c r="BA5" s="85">
+      <c r="BA5" s="76">
         <v>15.91</v>
       </c>
-      <c r="BB5" s="85">
+      <c r="BB5" s="76">
         <v>6.86</v>
       </c>
     </row>
-    <row r="6" spans="2:59" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="85" t="s">
+    <row r="6" spans="2:59" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="O6" s="86">
+      <c r="E6" s="77"/>
+      <c r="O6" s="77">
         <v>9.16</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="76">
         <v>9.85</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="76">
         <v>10.08</v>
       </c>
-      <c r="R6" s="85">
+      <c r="R6" s="76">
         <v>10.1</v>
       </c>
-      <c r="S6" s="86">
+      <c r="S6" s="77">
         <v>11.1</v>
       </c>
-      <c r="T6" s="85">
+      <c r="T6" s="76">
         <v>10.31</v>
       </c>
-      <c r="U6" s="85">
+      <c r="U6" s="76">
         <v>7.83</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="76">
         <v>5.51</v>
       </c>
-      <c r="W6" s="86">
+      <c r="W6" s="77">
         <v>4.7699999999999996</v>
       </c>
-      <c r="X6" s="85">
+      <c r="X6" s="76">
         <v>2.09</v>
       </c>
-      <c r="Y6" s="85">
+      <c r="Y6" s="76">
         <v>1.83</v>
       </c>
-      <c r="Z6" s="85">
+      <c r="Z6" s="76">
         <v>1.38</v>
       </c>
-      <c r="AA6" s="86">
+      <c r="AA6" s="77">
         <v>1.04</v>
       </c>
-      <c r="AB6" s="85">
+      <c r="AB6" s="76">
         <v>0.88</v>
       </c>
-      <c r="AY6" s="85">
+      <c r="AY6" s="76">
         <v>9.7100000000000009</v>
       </c>
-      <c r="AZ6" s="85">
+      <c r="AZ6" s="76">
         <v>9.85</v>
       </c>
-      <c r="BA6" s="85">
+      <c r="BA6" s="76">
         <v>5.51</v>
       </c>
-      <c r="BB6" s="85">
+      <c r="BB6" s="76">
         <v>1.38</v>
       </c>
     </row>
-    <row r="7" spans="2:59" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:59" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="76" t="s">
         <v>426</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="O7" s="86">
+      <c r="E7" s="77"/>
+      <c r="O7" s="77">
         <v>9.9700000000000006</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="76">
         <v>10.06</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="76">
         <v>10.17</v>
       </c>
-      <c r="R7" s="85">
+      <c r="R7" s="76">
         <v>11.89</v>
       </c>
-      <c r="S7" s="86">
+      <c r="S7" s="77">
         <v>16.37</v>
       </c>
-      <c r="T7" s="85">
+      <c r="T7" s="76">
         <v>11.82</v>
       </c>
-      <c r="U7" s="85">
+      <c r="U7" s="76">
         <v>10.51</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="76">
         <v>7.93</v>
       </c>
-      <c r="W7" s="86">
+      <c r="W7" s="77">
         <v>6.51</v>
       </c>
-      <c r="X7" s="85">
+      <c r="X7" s="76">
         <v>4.33</v>
       </c>
-      <c r="Y7" s="85">
+      <c r="Y7" s="76">
         <v>2.4</v>
       </c>
-      <c r="Z7" s="85">
+      <c r="Z7" s="76">
         <v>2.04</v>
       </c>
-      <c r="AA7" s="86">
+      <c r="AA7" s="77">
         <v>1.46</v>
       </c>
-      <c r="AB7" s="85">
+      <c r="AB7" s="76">
         <v>1.42</v>
       </c>
-      <c r="AY7" s="85">
+      <c r="AY7" s="76">
         <v>9.8699999999999992</v>
       </c>
-      <c r="AZ7" s="85">
+      <c r="AZ7" s="76">
         <v>10.7</v>
       </c>
-      <c r="BA7" s="85">
+      <c r="BA7" s="76">
         <v>10.1</v>
       </c>
-      <c r="BB7" s="85">
+      <c r="BB7" s="76">
         <v>2.92</v>
       </c>
     </row>
@@ -3515,7 +3512,7 @@
       <c r="U10" s="31">
         <v>31792</v>
       </c>
-      <c r="V10" s="82">
+      <c r="V10" s="5">
         <f>BA10-U10-T10-S10</f>
         <v>58156</v>
       </c>
@@ -3579,7 +3576,7 @@
       <c r="U11" s="31">
         <v>4908</v>
       </c>
-      <c r="V11" s="82">
+      <c r="V11" s="5">
         <f>BA11-U11-T11-S11</f>
         <v>8076</v>
       </c>
@@ -3643,7 +3640,7 @@
       <c r="U12" s="32">
         <v>194</v>
       </c>
-      <c r="V12" s="84">
+      <c r="V12" s="16">
         <f>BA12-U12-T12-S12</f>
         <v>540</v>
       </c>
@@ -3844,7 +3841,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
-      <c r="O14" s="34" t="e">
+      <c r="O14" s="66" t="e">
         <f t="shared" ref="O14:Y14" si="14">O10/O13</f>
         <v>#DIV/0!</v>
       </c>
@@ -3860,7 +3857,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="66">
         <f t="shared" si="14"/>
         <v>0.83572098005087692</v>
       </c>
@@ -3876,7 +3873,7 @@
         <f t="shared" si="14"/>
         <v>0.87096387707422274</v>
       </c>
-      <c r="W14" s="69">
+      <c r="W14" s="66">
         <f t="shared" si="14"/>
         <v>0.9065670339260391</v>
       </c>
@@ -3892,7 +3889,7 @@
         <f t="shared" ref="Z14" si="15">Z10/Z13</f>
         <v>0.91499606463262184</v>
       </c>
-      <c r="AA14" s="69">
+      <c r="AA14" s="66">
         <f t="shared" ref="AA14" si="16">AA10/AA13</f>
         <v>0.761309688544483</v>
       </c>
@@ -3949,7 +3946,7 @@
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
-      <c r="O15" s="34" t="e">
+      <c r="O15" s="66" t="e">
         <f t="shared" ref="O15:Y15" si="21">O11/O13</f>
         <v>#DIV/0!</v>
       </c>
@@ -3965,7 +3962,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="66">
         <f t="shared" si="21"/>
         <v>0.15577721247824342</v>
       </c>
@@ -3981,7 +3978,7 @@
         <f t="shared" si="21"/>
         <v>0.1209489007368358</v>
       </c>
-      <c r="W15" s="69">
+      <c r="W15" s="66">
         <f t="shared" si="21"/>
         <v>7.5024544562015932E-2</v>
       </c>
@@ -3997,7 +3994,7 @@
         <f t="shared" ref="Z15:AD15" si="22">Z11/Z13</f>
         <v>7.3244131672762627E-2</v>
       </c>
-      <c r="AA15" s="69">
+      <c r="AA15" s="66">
         <f t="shared" si="22"/>
         <v>0.21682668767164115</v>
       </c>
@@ -4054,7 +4051,7 @@
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
-      <c r="O16" s="36" t="e">
+      <c r="O16" s="67" t="e">
         <f t="shared" ref="O16:Y16" si="24">O12/O13</f>
         <v>#DIV/0!</v>
       </c>
@@ -4070,7 +4067,7 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="67">
         <f t="shared" si="24"/>
         <v>8.5018074708796357E-3</v>
       </c>
@@ -4086,7 +4083,7 @@
         <f t="shared" si="24"/>
         <v>8.0872221889414717E-3</v>
       </c>
-      <c r="W16" s="70">
+      <c r="W16" s="67">
         <f t="shared" si="24"/>
         <v>1.8408421511945019E-2</v>
       </c>
@@ -4102,7 +4099,7 @@
         <f t="shared" ref="Z16:AD16" si="25">Z12/Z13</f>
         <v>1.1759803694615491E-2</v>
       </c>
-      <c r="AA16" s="70">
+      <c r="AA16" s="67">
         <f t="shared" si="25"/>
         <v>2.1863623783875845E-2</v>
       </c>
@@ -4159,7 +4156,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
-      <c r="O17" s="38" t="e">
+      <c r="O17" s="68" t="e">
         <f t="shared" ref="O17:Y17" si="27">SUM(O14:O16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4175,7 +4172,7 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="68">
         <f t="shared" si="27"/>
         <v>0.99999999999999989</v>
       </c>
@@ -4191,7 +4188,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="W17" s="71">
+      <c r="W17" s="68">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -4207,7 +4204,7 @@
         <f t="shared" ref="Z17" si="28">SUM(Z14:Z16)</f>
         <v>1</v>
       </c>
-      <c r="AA17" s="71">
+      <c r="AA17" s="68">
         <f t="shared" ref="AA17" si="29">SUM(AA14:AA16)</f>
         <v>1</v>
       </c>
@@ -4507,7 +4504,7 @@
       <c r="U27" s="16">
         <v>-72779</v>
       </c>
-      <c r="V27" s="83">
+      <c r="V27" s="16">
         <f>BA27-U27-T27-S27</f>
         <v>-65619</v>
       </c>
@@ -4614,7 +4611,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17">
+      <c r="O28" s="45">
         <f t="shared" ref="O28:Y28" si="38">SUM(O26:O27)</f>
         <v>0</v>
       </c>
@@ -4630,7 +4627,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="45">
         <f t="shared" si="38"/>
         <v>-1237</v>
       </c>
@@ -4899,7 +4896,7 @@
       <c r="U30" s="5">
         <v>-57058</v>
       </c>
-      <c r="V30" s="82">
+      <c r="V30" s="5">
         <f>BA30-U30-T30-S30</f>
         <v>-33822</v>
       </c>
@@ -5021,7 +5018,7 @@
       <c r="U31" s="5">
         <v>-13518</v>
       </c>
-      <c r="V31" s="82">
+      <c r="V31" s="5">
         <f>BA31-U31-T31-S31</f>
         <v>-11186</v>
       </c>
@@ -5143,7 +5140,7 @@
       <c r="U32" s="16">
         <v>-7380</v>
       </c>
-      <c r="V32" s="83">
+      <c r="V32" s="16">
         <f>BA32-U32-T32-S32</f>
         <v>-7189</v>
       </c>
@@ -5250,7 +5247,7 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="17">
+      <c r="O33" s="45">
         <f t="shared" ref="O33:Y33" si="48">SUM(O30:O32)</f>
         <v>0</v>
       </c>
@@ -5266,7 +5263,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="45">
         <f t="shared" si="48"/>
         <v>-11516</v>
       </c>
@@ -5445,7 +5442,7 @@
       <c r="U34" s="16">
         <v>545</v>
       </c>
-      <c r="V34" s="83">
+      <c r="V34" s="16">
         <f>BA34-U34-T34-S34</f>
         <v>3451</v>
       </c>
@@ -5552,7 +5549,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="17">
+      <c r="O35" s="45">
         <f t="shared" ref="O35:Y35" si="58">O28+SUM(O33:O34)</f>
         <v>0</v>
       </c>
@@ -5568,7 +5565,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="45">
         <f t="shared" si="58"/>
         <v>-10835</v>
       </c>
@@ -5837,7 +5834,7 @@
       <c r="U37" s="5">
         <v>97</v>
       </c>
-      <c r="V37" s="82">
+      <c r="V37" s="5">
         <f>BA37-U37-T37-S37</f>
         <v>142</v>
       </c>
@@ -5959,7 +5956,7 @@
       <c r="U38" s="5">
         <v>-1247</v>
       </c>
-      <c r="V38" s="82">
+      <c r="V38" s="5">
         <f>BA38-U38-T38-S38</f>
         <v>-781</v>
       </c>
@@ -6081,7 +6078,7 @@
       <c r="U39" s="5">
         <v>-3018</v>
       </c>
-      <c r="V39" s="82">
+      <c r="V39" s="5">
         <f>BA39-U39-T39-S39</f>
         <v>0</v>
       </c>
@@ -6203,7 +6200,7 @@
       <c r="U40" s="5">
         <v>1113</v>
       </c>
-      <c r="V40" s="82">
+      <c r="V40" s="5">
         <f>BA40-U40-T40-S40</f>
         <v>1356</v>
       </c>
@@ -6325,7 +6322,7 @@
       <c r="U41" s="16">
         <v>-19</v>
       </c>
-      <c r="V41" s="83">
+      <c r="V41" s="16">
         <f>BA41-U41-T41-S41</f>
         <v>-87</v>
       </c>
@@ -6432,7 +6429,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
-      <c r="O42" s="17">
+      <c r="O42" s="45">
         <f t="shared" ref="O42:Y42" si="68">O35+SUM(O37:O41)</f>
         <v>0</v>
       </c>
@@ -6448,7 +6445,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="45">
         <f t="shared" si="68"/>
         <v>-16190</v>
       </c>
@@ -6598,7 +6595,7 @@
     <row r="43" spans="1:86" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -6627,7 +6624,7 @@
       <c r="U43" s="16">
         <v>-106</v>
       </c>
-      <c r="V43" s="83">
+      <c r="V43" s="16">
         <f>BA43-U43-T43-S43</f>
         <v>324</v>
       </c>
@@ -6734,7 +6731,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="O44" s="17">
+      <c r="O44" s="45">
         <f t="shared" ref="O44:Y44" si="78">SUM(O42:O43)</f>
         <v>0</v>
       </c>
@@ -6750,7 +6747,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="45">
         <f t="shared" si="78"/>
         <v>-16299</v>
       </c>
@@ -6929,7 +6926,7 @@
       <c r="U45" s="16">
         <v>0</v>
       </c>
-      <c r="V45" s="83">
+      <c r="V45" s="16">
         <f>BA45-U45-T45-S45</f>
         <v>0</v>
       </c>
@@ -7036,7 +7033,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="17">
+      <c r="O46" s="45">
         <f t="shared" ref="O46:Y46" si="88">O44-O45</f>
         <v>0</v>
       </c>
@@ -7052,7 +7049,7 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="45">
         <f t="shared" si="88"/>
         <v>-16299</v>
       </c>
@@ -7210,7 +7207,7 @@
       <c r="U47" s="5">
         <v>1003</v>
       </c>
-      <c r="V47" s="82">
+      <c r="V47" s="5">
         <f>BA47-U47-T47-S47</f>
         <v>-752</v>
       </c>
@@ -7332,7 +7329,7 @@
       <c r="U48" s="5">
         <v>2281</v>
       </c>
-      <c r="V48" s="82">
+      <c r="V48" s="5">
         <f>BA48-U48-T48-S48</f>
         <v>-1711</v>
       </c>
@@ -7454,7 +7451,7 @@
       <c r="U49" s="5">
         <v>4759</v>
       </c>
-      <c r="V49" s="82">
+      <c r="V49" s="5">
         <f>BA49-U49-T49-S49</f>
         <v>-3569</v>
       </c>
@@ -7576,7 +7573,7 @@
       <c r="U50" s="16">
         <v>4036</v>
       </c>
-      <c r="V50" s="83">
+      <c r="V50" s="16">
         <f>BA50-U50-T50-S50</f>
         <v>-2520</v>
       </c>
@@ -7683,7 +7680,7 @@
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="17">
+      <c r="O51" s="45">
         <f t="shared" ref="O51:Y51" si="94">O46-SUM(O47:O50)</f>
         <v>0</v>
       </c>
@@ -7699,7 +7696,7 @@
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="S51" s="17">
+      <c r="S51" s="45">
         <f t="shared" si="94"/>
         <v>-28313</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>48</v>
       </c>
       <c r="E53" s="43"/>
-      <c r="O53" s="22" t="e">
+      <c r="O53" s="69" t="e">
         <f t="shared" ref="O53:Y53" si="104">O51/O54</f>
         <v>#DIV/0!</v>
       </c>
@@ -7955,7 +7952,7 @@
         <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S53" s="22">
+      <c r="S53" s="69">
         <f t="shared" si="104"/>
         <v>-0.28590817834623572</v>
       </c>
@@ -7971,7 +7968,7 @@
         <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W53" s="72">
+      <c r="W53" s="69">
         <f t="shared" si="104"/>
         <v>-0.1464849357563705</v>
       </c>
@@ -7987,7 +7984,7 @@
         <f t="shared" ref="Z53" si="105">Z51/Z54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="72">
+      <c r="AA53" s="69">
         <f t="shared" ref="AA53:AB53" si="106">AA51/AA54</f>
         <v>-9.6131209999065326E-2</v>
       </c>
@@ -8155,7 +8152,7 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
       <c r="S55" s="45"/>
-      <c r="T55" s="74"/>
+      <c r="T55" s="70"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
       <c r="W55" s="45"/>
@@ -8532,7 +8529,7 @@
         <v>295816</v>
       </c>
       <c r="Z59" s="5">
-        <f>BB59</f>
+        <f t="shared" ref="Z59:Z65" si="109">BB59</f>
         <v>231420</v>
       </c>
       <c r="AA59" s="43">
@@ -8647,7 +8644,7 @@
         <v>83179</v>
       </c>
       <c r="Z60" s="5">
-        <f>BB60</f>
+        <f t="shared" si="109"/>
         <v>95802</v>
       </c>
       <c r="AA60" s="43">
@@ -8765,7 +8762,7 @@
         <v>82707</v>
       </c>
       <c r="Z61" s="5">
-        <f>BB61</f>
+        <f t="shared" si="109"/>
         <v>119304</v>
       </c>
       <c r="AA61" s="43">
@@ -8880,7 +8877,7 @@
         <v>4505</v>
       </c>
       <c r="Z62" s="5">
-        <f>BB62</f>
+        <f t="shared" si="109"/>
         <v>2196</v>
       </c>
       <c r="AA62" s="43">
@@ -8995,7 +8992,7 @@
         <v>82262</v>
       </c>
       <c r="Z63" s="5">
-        <f>BB63</f>
+        <f t="shared" si="109"/>
         <v>84252</v>
       </c>
       <c r="AA63" s="43">
@@ -9110,7 +9107,7 @@
         <v>19060</v>
       </c>
       <c r="Z64" s="5">
-        <f>BB64</f>
+        <f t="shared" si="109"/>
         <v>12093</v>
       </c>
       <c r="AA64" s="43">
@@ -9225,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="16">
-        <f>BB65</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AA65" s="44">
@@ -9317,31 +9314,31 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
       <c r="O66" s="45">
-        <f t="shared" ref="O66:U66" si="109">SUM(O59:O65)</f>
+        <f t="shared" ref="O66:U66" si="110">SUM(O59:O65)</f>
         <v>0</v>
       </c>
       <c r="P66" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="Q66" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="R66" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>189323</v>
       </c>
       <c r="S66" s="45">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T66" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="U66" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>750924</v>
       </c>
       <c r="V66" s="17">
@@ -9361,23 +9358,23 @@
         <v>567529</v>
       </c>
       <c r="Z66" s="17">
-        <f t="shared" ref="Z66:AD66" si="110">SUM(Z59:Z65)</f>
+        <f t="shared" ref="Z66:AD66" si="111">SUM(Z59:Z65)</f>
         <v>545067</v>
       </c>
       <c r="AA66" s="45">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>497036</v>
       </c>
       <c r="AB66" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>426996</v>
       </c>
       <c r="AC66" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AD66" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AE66" s="17"/>
@@ -9394,59 +9391,59 @@
       <c r="AP66" s="17"/>
       <c r="AQ66" s="17"/>
       <c r="AR66" s="17">
-        <f t="shared" ref="AR66:BA66" si="111">SUM(AR59:AR65)</f>
+        <f t="shared" ref="AR66:BA66" si="112">SUM(AR59:AR65)</f>
         <v>0</v>
       </c>
       <c r="AS66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AT66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AU66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AV66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AW66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AX66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AY66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AZ66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>189323</v>
       </c>
       <c r="BA66" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>706606</v>
       </c>
       <c r="BB66" s="17">
-        <f t="shared" ref="BB66" si="112">SUM(BB59:BB65)</f>
+        <f t="shared" ref="BB66" si="113">SUM(BB59:BB65)</f>
         <v>545067</v>
       </c>
       <c r="BC66" s="17">
-        <f t="shared" ref="BC66" si="113">SUM(BC59:BC65)</f>
+        <f t="shared" ref="BC66" si="114">SUM(BC59:BC65)</f>
         <v>0</v>
       </c>
       <c r="BD66" s="17">
-        <f t="shared" ref="BD66" si="114">SUM(BD59:BD65)</f>
+        <f t="shared" ref="BD66" si="115">SUM(BD59:BD65)</f>
         <v>0</v>
       </c>
       <c r="BE66" s="17">
-        <f t="shared" ref="BE66" si="115">SUM(BE59:BE65)</f>
+        <f t="shared" ref="BE66" si="116">SUM(BE59:BE65)</f>
         <v>0</v>
       </c>
       <c r="BF66" s="17"/>
@@ -9610,7 +9607,7 @@
         <v>36704</v>
       </c>
       <c r="Z68" s="5">
-        <f>BB68</f>
+        <f t="shared" ref="Z68:Z73" si="117">BB68</f>
         <v>465</v>
       </c>
       <c r="AA68" s="43">
@@ -9725,7 +9722,7 @@
         <v>286346</v>
       </c>
       <c r="Z69" s="5">
-        <f>BB69</f>
+        <f t="shared" si="117"/>
         <v>335140</v>
       </c>
       <c r="AA69" s="43">
@@ -9840,7 +9837,7 @@
         <v>12328</v>
       </c>
       <c r="Z70" s="5">
-        <f>BB70</f>
+        <f t="shared" si="117"/>
         <v>12639</v>
       </c>
       <c r="AA70" s="43">
@@ -9955,7 +9952,7 @@
         <v>1696</v>
       </c>
       <c r="Z71" s="5">
-        <f>BB71</f>
+        <f t="shared" si="117"/>
         <v>1636</v>
       </c>
       <c r="AA71" s="43">
@@ -10070,7 +10067,7 @@
         <v>15509</v>
       </c>
       <c r="Z72" s="5">
-        <f>BB72</f>
+        <f t="shared" si="117"/>
         <v>16368</v>
       </c>
       <c r="AA72" s="43">
@@ -10185,7 +10182,7 @@
         <v>52816</v>
       </c>
       <c r="Z73" s="5">
-        <f>BB73</f>
+        <f t="shared" si="117"/>
         <v>73642</v>
       </c>
       <c r="AA73" s="44">
@@ -10277,31 +10274,31 @@
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
       <c r="O74" s="50">
-        <f t="shared" ref="O74:U74" si="116">SUM(O68:O73)</f>
+        <f t="shared" ref="O74:U74" si="118">SUM(O68:O73)</f>
         <v>0</v>
       </c>
       <c r="P74" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q74" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R74" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>215187</v>
       </c>
       <c r="S74" s="50">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T74" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U74" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>239432</v>
       </c>
       <c r="V74" s="24">
@@ -10321,23 +10318,23 @@
         <v>405399</v>
       </c>
       <c r="Z74" s="24">
-        <f t="shared" ref="Z74:AD74" si="117">SUM(Z68:Z73)</f>
+        <f t="shared" ref="Z74:AD74" si="119">SUM(Z68:Z73)</f>
         <v>439890</v>
       </c>
       <c r="AA74" s="50">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>506945</v>
       </c>
       <c r="AB74" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>570676</v>
       </c>
       <c r="AC74" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD74" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AE74" s="24"/>
@@ -10358,55 +10355,55 @@
         <v>0</v>
       </c>
       <c r="AS74" s="24">
-        <f t="shared" ref="AS74:BE74" si="118">SUM(AS68:AS73)</f>
+        <f t="shared" ref="AS74:BE74" si="120">SUM(AS68:AS73)</f>
         <v>0</v>
       </c>
       <c r="AT74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AU74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AV74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AW74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AX74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AY74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AZ74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>215187</v>
       </c>
       <c r="BA74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>288685</v>
       </c>
       <c r="BB74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>439890</v>
       </c>
       <c r="BC74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BD74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BE74" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BF74" s="24"/>
@@ -10457,31 +10454,31 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
       <c r="O75" s="45">
-        <f t="shared" ref="O75:U75" si="119">O74+O66</f>
+        <f t="shared" ref="O75:U75" si="121">O74+O66</f>
         <v>0</v>
       </c>
       <c r="P75" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Q75" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R75" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>404510</v>
       </c>
       <c r="S75" s="45">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="T75" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>990356</v>
       </c>
       <c r="V75" s="17">
@@ -10501,23 +10498,23 @@
         <v>972928</v>
       </c>
       <c r="Z75" s="17">
-        <f t="shared" ref="Z75:AD75" si="120">Z74+Z66</f>
+        <f t="shared" ref="Z75:AD75" si="122">Z74+Z66</f>
         <v>984957</v>
       </c>
       <c r="AA75" s="45">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1003981</v>
       </c>
       <c r="AB75" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>997672</v>
       </c>
       <c r="AC75" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AD75" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AE75" s="17"/>
@@ -10534,59 +10531,59 @@
       <c r="AP75" s="17"/>
       <c r="AQ75" s="17"/>
       <c r="AR75" s="17">
-        <f t="shared" ref="AR75:BA75" si="121">AR74+AR66</f>
+        <f t="shared" ref="AR75:BA75" si="123">AR74+AR66</f>
         <v>0</v>
       </c>
       <c r="AS75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AT75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AU75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AV75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AW75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AX75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AY75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AZ75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>404510</v>
       </c>
       <c r="BA75" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>995291</v>
       </c>
       <c r="BB75" s="17">
-        <f t="shared" ref="BB75" si="122">BB74+BB66</f>
+        <f t="shared" ref="BB75" si="124">BB74+BB66</f>
         <v>984957</v>
       </c>
       <c r="BC75" s="17">
-        <f t="shared" ref="BC75" si="123">BC74+BC66</f>
+        <f t="shared" ref="BC75" si="125">BC74+BC66</f>
         <v>0</v>
       </c>
       <c r="BD75" s="17">
-        <f t="shared" ref="BD75" si="124">BD74+BD66</f>
+        <f t="shared" ref="BD75" si="126">BD74+BD66</f>
         <v>0</v>
       </c>
       <c r="BE75" s="17">
-        <f t="shared" ref="BE75" si="125">BE74+BE66</f>
+        <f t="shared" ref="BE75" si="127">BE74+BE66</f>
         <v>0</v>
       </c>
       <c r="BF75" s="17"/>
@@ -10750,7 +10747,7 @@
         <v>35972</v>
       </c>
       <c r="Z77" s="5">
-        <f>BB77</f>
+        <f t="shared" ref="Z77:Z83" si="128">BB77</f>
         <v>44985</v>
       </c>
       <c r="AA77" s="43">
@@ -10865,7 +10862,7 @@
         <v>72811</v>
       </c>
       <c r="Z78" s="5">
-        <f>BB78</f>
+        <f t="shared" si="128"/>
         <v>68441</v>
       </c>
       <c r="AA78" s="43">
@@ -10980,7 +10977,7 @@
         <v>79520</v>
       </c>
       <c r="Z79" s="5">
-        <f>BB79</f>
+        <f t="shared" si="128"/>
         <v>66720</v>
       </c>
       <c r="AA79" s="43">
@@ -11095,7 +11092,7 @@
         <v>6589</v>
       </c>
       <c r="Z80" s="5">
-        <f>BB80</f>
+        <f t="shared" si="128"/>
         <v>54207</v>
       </c>
       <c r="AA80" s="43">
@@ -11210,7 +11207,7 @@
         <v>7029</v>
       </c>
       <c r="Z81" s="5">
-        <f>BB81</f>
+        <f t="shared" si="128"/>
         <v>17398</v>
       </c>
       <c r="AA81" s="43">
@@ -11325,7 +11322,7 @@
         <v>655</v>
       </c>
       <c r="Z82" s="5">
-        <f>BB82</f>
+        <f t="shared" si="128"/>
         <v>658</v>
       </c>
       <c r="AA82" s="43">
@@ -11440,7 +11437,7 @@
         <v>29259</v>
       </c>
       <c r="Z83" s="5">
-        <f>BB83</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AA83" s="44">
@@ -11532,31 +11529,31 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
       <c r="O84" s="45">
-        <f t="shared" ref="O84:U84" si="126">SUM(O77:O83)</f>
+        <f t="shared" ref="O84:U84" si="129">SUM(O77:O83)</f>
         <v>0</v>
       </c>
       <c r="P84" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Q84" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="R84" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>183626</v>
       </c>
       <c r="S84" s="45">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="T84" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="U84" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>153612</v>
       </c>
       <c r="V84" s="17">
@@ -11576,23 +11573,23 @@
         <v>231835</v>
       </c>
       <c r="Z84" s="17">
-        <f t="shared" ref="Z84:AD84" si="127">SUM(Z77:Z83)</f>
+        <f t="shared" ref="Z84:AD84" si="130">SUM(Z77:Z83)</f>
         <v>252409</v>
       </c>
       <c r="AA84" s="45">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>277753</v>
       </c>
       <c r="AB84" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>292710</v>
       </c>
       <c r="AC84" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AD84" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AE84" s="17"/>
@@ -11609,59 +11606,59 @@
       <c r="AP84" s="17"/>
       <c r="AQ84" s="17"/>
       <c r="AR84" s="17">
-        <f t="shared" ref="AR84:BA84" si="128">SUM(AR77:AR83)</f>
+        <f t="shared" ref="AR84:BA84" si="131">SUM(AR77:AR83)</f>
         <v>0</v>
       </c>
       <c r="AS84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AT84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AU84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AV84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AW84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AX84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AY84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AZ84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>183626</v>
       </c>
       <c r="BA84" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>175594</v>
       </c>
       <c r="BB84" s="17">
-        <f t="shared" ref="BB84" si="129">SUM(BB77:BB83)</f>
+        <f t="shared" ref="BB84" si="132">SUM(BB77:BB83)</f>
         <v>252409</v>
       </c>
       <c r="BC84" s="17">
-        <f t="shared" ref="BC84" si="130">SUM(BC77:BC83)</f>
+        <f t="shared" ref="BC84" si="133">SUM(BC77:BC83)</f>
         <v>0</v>
       </c>
       <c r="BD84" s="17">
-        <f t="shared" ref="BD84" si="131">SUM(BD77:BD83)</f>
+        <f t="shared" ref="BD84" si="134">SUM(BD77:BD83)</f>
         <v>0</v>
       </c>
       <c r="BE84" s="17">
-        <f t="shared" ref="BE84" si="132">SUM(BE77:BE83)</f>
+        <f t="shared" ref="BE84" si="135">SUM(BE77:BE83)</f>
         <v>0</v>
       </c>
       <c r="BF84" s="17"/>
@@ -11825,7 +11822,7 @@
         <v>43888</v>
       </c>
       <c r="Z86" s="5">
-        <f>BB86</f>
+        <f t="shared" ref="Z86:Z92" si="136">BB86</f>
         <v>0</v>
       </c>
       <c r="AA86" s="43">
@@ -11940,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="5">
-        <f>BB87</f>
+        <f t="shared" si="136"/>
         <v>28997</v>
       </c>
       <c r="AA87" s="43">
@@ -12055,7 +12052,7 @@
         <v>37956</v>
       </c>
       <c r="Z88" s="5">
-        <f>BB88</f>
+        <f t="shared" si="136"/>
         <v>43888</v>
       </c>
       <c r="AA88" s="43">
@@ -12170,7 +12167,7 @@
         <v>184</v>
       </c>
       <c r="Z89" s="5">
-        <f>BB89</f>
+        <f t="shared" si="136"/>
         <v>126</v>
       </c>
       <c r="AA89" s="43">
@@ -12285,7 +12282,7 @@
         <v>115</v>
       </c>
       <c r="Z90" s="5">
-        <f>BB90</f>
+        <f t="shared" si="136"/>
         <v>131</v>
       </c>
       <c r="AA90" s="43">
@@ -12400,7 +12397,7 @@
         <v>13530</v>
       </c>
       <c r="Z91" s="5">
-        <f>BB91</f>
+        <f t="shared" si="136"/>
         <v>14347</v>
       </c>
       <c r="AA91" s="43">
@@ -12515,7 +12512,7 @@
         <v>29564</v>
       </c>
       <c r="Z92" s="5">
-        <f>BB92</f>
+        <f t="shared" si="136"/>
         <v>32082</v>
       </c>
       <c r="AA92" s="44">
@@ -12607,67 +12604,67 @@
       <c r="M93" s="25"/>
       <c r="N93" s="25"/>
       <c r="O93" s="51">
-        <f t="shared" ref="O93:Y93" si="133">SUM(O86:O92)</f>
+        <f t="shared" ref="O93:Y93" si="137">SUM(O86:O92)</f>
         <v>0</v>
       </c>
       <c r="P93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="R93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>205536</v>
       </c>
       <c r="S93" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="T93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="U93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>119960</v>
       </c>
       <c r="V93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>132999</v>
       </c>
       <c r="W93" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>159950</v>
       </c>
       <c r="X93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>91379</v>
       </c>
       <c r="Y93" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>125237</v>
       </c>
       <c r="Z93" s="25">
-        <f t="shared" ref="Z93" si="134">SUM(Z86:Z92)</f>
+        <f t="shared" ref="Z93" si="138">SUM(Z86:Z92)</f>
         <v>119571</v>
       </c>
       <c r="AA93" s="51">
-        <f t="shared" ref="AA93:AB93" si="135">SUM(AA86:AA92)</f>
+        <f t="shared" ref="AA93:AB93" si="139">SUM(AA86:AA92)</f>
         <v>120399</v>
       </c>
       <c r="AB93" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>125245</v>
       </c>
       <c r="AC93" s="25">
-        <f t="shared" ref="AC93" si="136">SUM(AC86:AC92)</f>
+        <f t="shared" ref="AC93" si="140">SUM(AC86:AC92)</f>
         <v>0</v>
       </c>
       <c r="AD93" s="25">
-        <f t="shared" ref="AD93" si="137">SUM(AD86:AD92)</f>
+        <f t="shared" ref="AD93" si="141">SUM(AD86:AD92)</f>
         <v>0</v>
       </c>
       <c r="AE93" s="25"/>
@@ -12684,59 +12681,59 @@
       <c r="AP93" s="25"/>
       <c r="AQ93" s="25"/>
       <c r="AR93" s="25">
-        <f t="shared" ref="AR93:BA93" si="138">SUM(AR86:AR92)</f>
+        <f t="shared" ref="AR93:BA93" si="142">SUM(AR86:AR92)</f>
         <v>0</v>
       </c>
       <c r="AS93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AT93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AU93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AV93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AW93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AX93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AY93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AZ93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>205536</v>
       </c>
       <c r="BA93" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>132999</v>
       </c>
       <c r="BB93" s="25">
-        <f t="shared" ref="BB93" si="139">SUM(BB86:BB92)</f>
+        <f t="shared" ref="BB93" si="143">SUM(BB86:BB92)</f>
         <v>119571</v>
       </c>
       <c r="BC93" s="25">
-        <f t="shared" ref="BC93" si="140">SUM(BC86:BC92)</f>
+        <f t="shared" ref="BC93" si="144">SUM(BC86:BC92)</f>
         <v>0</v>
       </c>
       <c r="BD93" s="25">
-        <f t="shared" ref="BD93" si="141">SUM(BD86:BD92)</f>
+        <f t="shared" ref="BD93" si="145">SUM(BD86:BD92)</f>
         <v>0</v>
       </c>
       <c r="BE93" s="25">
-        <f t="shared" ref="BE93" si="142">SUM(BE86:BE92)</f>
+        <f t="shared" ref="BE93" si="146">SUM(BE86:BE92)</f>
         <v>0</v>
       </c>
       <c r="BF93" s="25"/>
@@ -12787,67 +12784,67 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
       <c r="O94" s="45">
-        <f t="shared" ref="O94:Y94" si="143">O93+O84</f>
+        <f t="shared" ref="O94:Y94" si="147">O93+O84</f>
         <v>0</v>
       </c>
       <c r="P94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>389162</v>
       </c>
       <c r="S94" s="45">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="T94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="U94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>273572</v>
       </c>
       <c r="V94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>308593</v>
       </c>
       <c r="W94" s="45">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>341340</v>
       </c>
       <c r="X94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>317640</v>
       </c>
       <c r="Y94" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>357072</v>
       </c>
       <c r="Z94" s="17">
-        <f t="shared" ref="Z94" si="144">Z93+Z84</f>
+        <f t="shared" ref="Z94" si="148">Z93+Z84</f>
         <v>371980</v>
       </c>
       <c r="AA94" s="45">
-        <f t="shared" ref="AA94:AB94" si="145">AA93+AA84</f>
+        <f t="shared" ref="AA94:AB94" si="149">AA93+AA84</f>
         <v>398152</v>
       </c>
       <c r="AB94" s="17">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>417955</v>
       </c>
       <c r="AC94" s="17">
-        <f t="shared" ref="AC94" si="146">AC93+AC84</f>
+        <f t="shared" ref="AC94" si="150">AC93+AC84</f>
         <v>0</v>
       </c>
       <c r="AD94" s="17">
-        <f t="shared" ref="AD94" si="147">AD93+AD84</f>
+        <f t="shared" ref="AD94" si="151">AD93+AD84</f>
         <v>0</v>
       </c>
       <c r="AE94" s="17"/>
@@ -12864,59 +12861,59 @@
       <c r="AP94" s="17"/>
       <c r="AQ94" s="17"/>
       <c r="AR94" s="17">
-        <f t="shared" ref="AR94:BA94" si="148">AR93+AR84</f>
+        <f t="shared" ref="AR94:BA94" si="152">AR93+AR84</f>
         <v>0</v>
       </c>
       <c r="AS94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AT94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AU94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AV94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AW94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AX94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AY94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AZ94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>389162</v>
       </c>
       <c r="BA94" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>308593</v>
       </c>
       <c r="BB94" s="17">
-        <f t="shared" ref="BB94" si="149">BB93+BB84</f>
+        <f t="shared" ref="BB94" si="153">BB93+BB84</f>
         <v>371980</v>
       </c>
       <c r="BC94" s="17">
-        <f t="shared" ref="BC94" si="150">BC93+BC84</f>
+        <f t="shared" ref="BC94" si="154">BC93+BC84</f>
         <v>0</v>
       </c>
       <c r="BD94" s="17">
-        <f t="shared" ref="BD94" si="151">BD93+BD84</f>
+        <f t="shared" ref="BD94" si="155">BD93+BD84</f>
         <v>0</v>
       </c>
       <c r="BE94" s="17">
-        <f t="shared" ref="BE94" si="152">BE93+BE84</f>
+        <f t="shared" ref="BE94" si="156">BE93+BE84</f>
         <v>0</v>
       </c>
       <c r="BF94" s="17"/>
@@ -13546,23 +13543,23 @@
         <v>0</v>
       </c>
       <c r="Z100" s="17">
-        <f t="shared" ref="Z100:AD100" si="153">SUM(Z96:Z99)</f>
+        <f t="shared" ref="Z100:AD100" si="157">SUM(Z96:Z99)</f>
         <v>0</v>
       </c>
       <c r="AA100" s="45">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AB100" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AC100" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AD100" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AE100" s="17"/>
@@ -13579,59 +13576,59 @@
       <c r="AP100" s="17"/>
       <c r="AQ100" s="17"/>
       <c r="AR100" s="17">
-        <f t="shared" ref="AR100:BA100" si="154">SUM(AR96:AR99)</f>
+        <f t="shared" ref="AR100:BA100" si="158">SUM(AR96:AR99)</f>
         <v>0</v>
       </c>
       <c r="AS100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AT100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AU100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AV100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AW100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AX100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AY100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AZ100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>399950</v>
       </c>
       <c r="BA100" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BB100" s="17">
-        <f t="shared" ref="BB100" si="155">SUM(BB96:BB99)</f>
+        <f t="shared" ref="BB100" si="159">SUM(BB96:BB99)</f>
         <v>0</v>
       </c>
       <c r="BC100" s="17">
-        <f t="shared" ref="BC100" si="156">SUM(BC96:BC99)</f>
+        <f t="shared" ref="BC100" si="160">SUM(BC96:BC99)</f>
         <v>0</v>
       </c>
       <c r="BD100" s="17">
-        <f t="shared" ref="BD100" si="157">SUM(BD96:BD99)</f>
+        <f t="shared" ref="BD100" si="161">SUM(BD96:BD99)</f>
         <v>0</v>
       </c>
       <c r="BE100" s="17">
-        <f t="shared" ref="BE100" si="158">SUM(BE96:BE99)</f>
+        <f t="shared" ref="BE100" si="162">SUM(BE96:BE99)</f>
         <v>0</v>
       </c>
       <c r="BF100" s="17"/>
@@ -14214,44 +14211,44 @@
       <c r="CG105" s="5"/>
       <c r="CH105" s="5"/>
     </row>
-    <row r="106" spans="1:86" s="65" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64" t="s">
+    <row r="106" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64"/>
-      <c r="P106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="64">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5">
         <v>7356</v>
       </c>
-      <c r="S106" s="64"/>
-      <c r="T106" s="64"/>
-      <c r="U106" s="64">
+      <c r="S106" s="43"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5">
         <v>4983</v>
       </c>
-      <c r="V106" s="64">
+      <c r="V106" s="5">
         <v>6701</v>
       </c>
       <c r="W106" s="43">
         <v>7687</v>
       </c>
-      <c r="X106" s="64">
+      <c r="X106" s="5">
         <v>-9909</v>
       </c>
-      <c r="Y106" s="64">
+      <c r="Y106" s="5">
         <v>-30911</v>
       </c>
       <c r="Z106" s="5">
@@ -14261,73 +14258,73 @@
       <c r="AA106" s="43">
         <v>-15861</v>
       </c>
-      <c r="AB106" s="64">
+      <c r="AB106" s="5">
         <v>-33745</v>
       </c>
-      <c r="AC106" s="64"/>
-      <c r="AD106" s="64"/>
-      <c r="AE106" s="64"/>
-      <c r="AF106" s="64"/>
-      <c r="AG106" s="64"/>
-      <c r="AH106" s="64"/>
-      <c r="AI106" s="64"/>
-      <c r="AJ106" s="64"/>
-      <c r="AK106" s="64"/>
-      <c r="AL106" s="64"/>
-      <c r="AM106" s="64"/>
-      <c r="AN106" s="64"/>
-      <c r="AO106" s="64"/>
-      <c r="AP106" s="64"/>
-      <c r="AQ106" s="64"/>
-      <c r="AR106" s="64"/>
-      <c r="AS106" s="64"/>
-      <c r="AT106" s="64"/>
-      <c r="AU106" s="64"/>
-      <c r="AV106" s="64"/>
-      <c r="AW106" s="64"/>
-      <c r="AX106" s="64"/>
-      <c r="AY106" s="64"/>
-      <c r="AZ106" s="64">
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="5"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="5"/>
+      <c r="AV106" s="5"/>
+      <c r="AW106" s="5"/>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="5"/>
+      <c r="AZ106" s="5">
         <v>7356</v>
       </c>
-      <c r="BA106" s="64">
+      <c r="BA106" s="5">
         <v>6701</v>
       </c>
-      <c r="BB106" s="64">
+      <c r="BB106" s="5">
         <v>-18081</v>
       </c>
-      <c r="BC106" s="64"/>
-      <c r="BD106" s="64"/>
-      <c r="BE106" s="64"/>
-      <c r="BF106" s="64"/>
-      <c r="BG106" s="64"/>
-      <c r="BH106" s="64"/>
-      <c r="BI106" s="64"/>
-      <c r="BJ106" s="64"/>
-      <c r="BK106" s="64"/>
-      <c r="BL106" s="64"/>
-      <c r="BM106" s="64"/>
-      <c r="BN106" s="64"/>
-      <c r="BO106" s="64"/>
-      <c r="BP106" s="64"/>
-      <c r="BQ106" s="64"/>
-      <c r="BR106" s="64"/>
-      <c r="BS106" s="64"/>
-      <c r="BT106" s="64"/>
-      <c r="BU106" s="64"/>
-      <c r="BV106" s="64"/>
-      <c r="BW106" s="64"/>
-      <c r="BX106" s="64"/>
-      <c r="BY106" s="64"/>
-      <c r="BZ106" s="64"/>
-      <c r="CA106" s="64"/>
-      <c r="CB106" s="64"/>
-      <c r="CC106" s="64"/>
-      <c r="CD106" s="64"/>
-      <c r="CE106" s="64"/>
-      <c r="CF106" s="64"/>
-      <c r="CG106" s="64"/>
-      <c r="CH106" s="64"/>
+      <c r="BC106" s="5"/>
+      <c r="BD106" s="5"/>
+      <c r="BE106" s="5"/>
+      <c r="BF106" s="5"/>
+      <c r="BG106" s="5"/>
+      <c r="BH106" s="5"/>
+      <c r="BI106" s="5"/>
+      <c r="BJ106" s="5"/>
+      <c r="BK106" s="5"/>
+      <c r="BL106" s="5"/>
+      <c r="BM106" s="5"/>
+      <c r="BN106" s="5"/>
+      <c r="BO106" s="5"/>
+      <c r="BP106" s="5"/>
+      <c r="BQ106" s="5"/>
+      <c r="BR106" s="5"/>
+      <c r="BS106" s="5"/>
+      <c r="BT106" s="5"/>
+      <c r="BU106" s="5"/>
+      <c r="BV106" s="5"/>
+      <c r="BW106" s="5"/>
+      <c r="BX106" s="5"/>
+      <c r="BY106" s="5"/>
+      <c r="BZ106" s="5"/>
+      <c r="CA106" s="5"/>
+      <c r="CB106" s="5"/>
+      <c r="CC106" s="5"/>
+      <c r="CD106" s="5"/>
+      <c r="CE106" s="5"/>
+      <c r="CF106" s="5"/>
+      <c r="CG106" s="5"/>
+      <c r="CH106" s="5"/>
     </row>
     <row r="107" spans="1:86" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="16"/>
@@ -14460,7 +14457,7 @@
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
       <c r="N108" s="25"/>
-      <c r="O108" s="25">
+      <c r="O108" s="51">
         <f>SUM(O102:O107)</f>
         <v>0</v>
       </c>
@@ -14469,59 +14466,59 @@
         <v>0</v>
       </c>
       <c r="Q108" s="25">
-        <f t="shared" ref="Q108:AD108" si="159">SUM(Q102:Q107)</f>
+        <f t="shared" ref="Q108:AD108" si="163">SUM(Q102:Q107)</f>
         <v>0</v>
       </c>
       <c r="R108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-384602</v>
       </c>
-      <c r="S108" s="25">
-        <f t="shared" si="159"/>
+      <c r="S108" s="51">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="T108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="U108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>716784</v>
       </c>
       <c r="V108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>686698</v>
       </c>
       <c r="W108" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>657375</v>
       </c>
       <c r="X108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>654004</v>
       </c>
       <c r="Y108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>615856</v>
       </c>
       <c r="Z108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>612977</v>
       </c>
       <c r="AA108" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>605829</v>
       </c>
       <c r="AB108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>579717</v>
       </c>
       <c r="AC108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AD108" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AE108" s="25"/>
@@ -14538,59 +14535,59 @@
       <c r="AP108" s="25"/>
       <c r="AQ108" s="25"/>
       <c r="AR108" s="25">
-        <f t="shared" ref="AR108" si="160">SUM(AR102:AR107)</f>
+        <f t="shared" ref="AR108" si="164">SUM(AR102:AR107)</f>
         <v>0</v>
       </c>
       <c r="AS108" s="25">
-        <f t="shared" ref="AS108" si="161">SUM(AS102:AS107)</f>
+        <f t="shared" ref="AS108" si="165">SUM(AS102:AS107)</f>
         <v>0</v>
       </c>
       <c r="AT108" s="25">
-        <f t="shared" ref="AT108" si="162">SUM(AT102:AT107)</f>
+        <f t="shared" ref="AT108" si="166">SUM(AT102:AT107)</f>
         <v>0</v>
       </c>
       <c r="AU108" s="25">
-        <f t="shared" ref="AU108" si="163">SUM(AU102:AU107)</f>
+        <f t="shared" ref="AU108" si="167">SUM(AU102:AU107)</f>
         <v>0</v>
       </c>
       <c r="AV108" s="25">
-        <f t="shared" ref="AV108" si="164">SUM(AV102:AV107)</f>
+        <f t="shared" ref="AV108" si="168">SUM(AV102:AV107)</f>
         <v>0</v>
       </c>
       <c r="AW108" s="25">
-        <f t="shared" ref="AW108" si="165">SUM(AW102:AW107)</f>
+        <f t="shared" ref="AW108" si="169">SUM(AW102:AW107)</f>
         <v>0</v>
       </c>
       <c r="AX108" s="25">
-        <f t="shared" ref="AX108" si="166">SUM(AX102:AX107)</f>
+        <f t="shared" ref="AX108" si="170">SUM(AX102:AX107)</f>
         <v>0</v>
       </c>
       <c r="AY108" s="25">
-        <f t="shared" ref="AY108" si="167">SUM(AY102:AY107)</f>
+        <f t="shared" ref="AY108" si="171">SUM(AY102:AY107)</f>
         <v>0</v>
       </c>
       <c r="AZ108" s="25">
-        <f t="shared" ref="AZ108" si="168">SUM(AZ102:AZ107)</f>
+        <f t="shared" ref="AZ108" si="172">SUM(AZ102:AZ107)</f>
         <v>-384602</v>
       </c>
       <c r="BA108" s="25">
-        <f t="shared" ref="BA108" si="169">SUM(BA102:BA107)</f>
+        <f t="shared" ref="BA108" si="173">SUM(BA102:BA107)</f>
         <v>686698</v>
       </c>
       <c r="BB108" s="25">
-        <f t="shared" ref="BB108" si="170">SUM(BB102:BB107)</f>
+        <f t="shared" ref="BB108" si="174">SUM(BB102:BB107)</f>
         <v>612977</v>
       </c>
       <c r="BC108" s="25">
-        <f t="shared" ref="BC108" si="171">SUM(BC102:BC107)</f>
+        <f t="shared" ref="BC108" si="175">SUM(BC102:BC107)</f>
         <v>0</v>
       </c>
       <c r="BD108" s="25">
-        <f t="shared" ref="BD108" si="172">SUM(BD102:BD107)</f>
+        <f t="shared" ref="BD108" si="176">SUM(BD102:BD107)</f>
         <v>0</v>
       </c>
       <c r="BE108" s="25">
-        <f t="shared" ref="BE108" si="173">SUM(BE102:BE107)</f>
+        <f t="shared" ref="BE108" si="177">SUM(BE102:BE107)</f>
         <v>0</v>
       </c>
       <c r="BF108" s="25"/>
@@ -14641,67 +14638,67 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
       <c r="O109" s="45">
-        <f t="shared" ref="O109:Y109" si="174">O108+O94</f>
+        <f t="shared" ref="O109:Y109" si="178">O108+O94</f>
         <v>0</v>
       </c>
       <c r="P109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="Q109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="R109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>4560</v>
       </c>
       <c r="S109" s="45">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="T109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="U109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>990356</v>
       </c>
       <c r="V109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>995291</v>
       </c>
       <c r="W109" s="45">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>998715</v>
       </c>
       <c r="X109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>971644</v>
       </c>
       <c r="Y109" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>972928</v>
       </c>
       <c r="Z109" s="17">
-        <f t="shared" ref="Z109" si="175">Z108+Z94</f>
+        <f t="shared" ref="Z109" si="179">Z108+Z94</f>
         <v>984957</v>
       </c>
       <c r="AA109" s="45">
-        <f t="shared" ref="AA109:AB109" si="176">AA108+AA94</f>
+        <f t="shared" ref="AA109:AB109" si="180">AA108+AA94</f>
         <v>1003981</v>
       </c>
       <c r="AB109" s="17">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>997672</v>
       </c>
       <c r="AC109" s="17">
-        <f t="shared" ref="AC109" si="177">AC108+AC94</f>
+        <f t="shared" ref="AC109" si="181">AC108+AC94</f>
         <v>0</v>
       </c>
       <c r="AD109" s="17">
-        <f t="shared" ref="AD109" si="178">AD108+AD94</f>
+        <f t="shared" ref="AD109" si="182">AD108+AD94</f>
         <v>0</v>
       </c>
       <c r="AE109" s="17"/>
@@ -14718,59 +14715,59 @@
       <c r="AP109" s="17"/>
       <c r="AQ109" s="17"/>
       <c r="AR109" s="17">
-        <f t="shared" ref="AR109" si="179">AR108+AR94</f>
+        <f t="shared" ref="AR109" si="183">AR108+AR94</f>
         <v>0</v>
       </c>
       <c r="AS109" s="17">
-        <f t="shared" ref="AS109" si="180">AS108+AS94</f>
+        <f t="shared" ref="AS109" si="184">AS108+AS94</f>
         <v>0</v>
       </c>
       <c r="AT109" s="17">
-        <f t="shared" ref="AT109" si="181">AT108+AT94</f>
+        <f t="shared" ref="AT109" si="185">AT108+AT94</f>
         <v>0</v>
       </c>
       <c r="AU109" s="17">
-        <f t="shared" ref="AU109" si="182">AU108+AU94</f>
+        <f t="shared" ref="AU109" si="186">AU108+AU94</f>
         <v>0</v>
       </c>
       <c r="AV109" s="17">
-        <f t="shared" ref="AV109" si="183">AV108+AV94</f>
+        <f t="shared" ref="AV109" si="187">AV108+AV94</f>
         <v>0</v>
       </c>
       <c r="AW109" s="17">
-        <f t="shared" ref="AW109" si="184">AW108+AW94</f>
+        <f t="shared" ref="AW109" si="188">AW108+AW94</f>
         <v>0</v>
       </c>
       <c r="AX109" s="17">
-        <f t="shared" ref="AX109" si="185">AX108+AX94</f>
+        <f t="shared" ref="AX109" si="189">AX108+AX94</f>
         <v>0</v>
       </c>
       <c r="AY109" s="17">
-        <f t="shared" ref="AY109" si="186">AY108+AY94</f>
+        <f t="shared" ref="AY109" si="190">AY108+AY94</f>
         <v>0</v>
       </c>
       <c r="AZ109" s="17">
-        <f t="shared" ref="AZ109" si="187">AZ108+AZ94</f>
+        <f t="shared" ref="AZ109" si="191">AZ108+AZ94</f>
         <v>4560</v>
       </c>
       <c r="BA109" s="17">
-        <f t="shared" ref="BA109" si="188">BA108+BA94</f>
+        <f t="shared" ref="BA109" si="192">BA108+BA94</f>
         <v>995291</v>
       </c>
       <c r="BB109" s="17">
-        <f t="shared" ref="BB109" si="189">BB108+BB94</f>
+        <f t="shared" ref="BB109" si="193">BB108+BB94</f>
         <v>984957</v>
       </c>
       <c r="BC109" s="17">
-        <f t="shared" ref="BC109" si="190">BC108+BC94</f>
+        <f t="shared" ref="BC109" si="194">BC108+BC94</f>
         <v>0</v>
       </c>
       <c r="BD109" s="17">
-        <f t="shared" ref="BD109" si="191">BD108+BD94</f>
+        <f t="shared" ref="BD109" si="195">BD108+BD94</f>
         <v>0</v>
       </c>
       <c r="BE109" s="17">
-        <f t="shared" ref="BE109" si="192">BE108+BE94</f>
+        <f t="shared" ref="BE109" si="196">BE108+BE94</f>
         <v>0</v>
       </c>
       <c r="BF109" s="17"/>
@@ -15279,7 +15276,10 @@
         <f>-24653-T115-S115</f>
         <v>-9628</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="5">
+        <f>BA115-U115-T115-S115</f>
+        <v>-20386</v>
+      </c>
       <c r="W115" s="43">
         <v>-24914</v>
       </c>
@@ -15403,7 +15403,10 @@
         <f>-40718-T116-S116</f>
         <v>-10860</v>
       </c>
-      <c r="V116" s="16"/>
+      <c r="V116" s="16">
+        <f>BA116-U116-T116-S116</f>
+        <v>-47144</v>
+      </c>
       <c r="W116" s="44">
         <v>-41061</v>
       </c>
@@ -15415,7 +15418,7 @@
         <f>-84722-X116-W116</f>
         <v>-16807</v>
       </c>
-      <c r="Z116" s="73">
+      <c r="Z116" s="16">
         <f>BB116-Y116-X116-W116</f>
         <v>-66158</v>
       </c>
@@ -15511,79 +15514,79 @@
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
       <c r="L117" s="17">
-        <f t="shared" ref="L117:Y117" si="193">SUM(L115:L116)</f>
+        <f t="shared" ref="L117:Y117" si="197">SUM(L115:L116)</f>
         <v>0</v>
       </c>
       <c r="M117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="N117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="O117" s="45">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="P117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="Q117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-9576</v>
       </c>
       <c r="R117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="S117" s="45">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-27603</v>
       </c>
       <c r="T117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-17280</v>
       </c>
       <c r="U117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-20488</v>
       </c>
       <c r="V117" s="17">
-        <f t="shared" si="193"/>
-        <v>0</v>
+        <f t="shared" si="197"/>
+        <v>-67530</v>
       </c>
       <c r="W117" s="45">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-65975</v>
       </c>
       <c r="X117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-65475</v>
       </c>
       <c r="Y117" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>-11867</v>
       </c>
       <c r="Z117" s="17">
-        <f t="shared" ref="Z117" si="194">SUM(Z115:Z116)</f>
+        <f t="shared" ref="Z117" si="198">SUM(Z115:Z116)</f>
         <v>-61491</v>
       </c>
       <c r="AA117" s="45">
-        <f t="shared" ref="AA117" si="195">SUM(AA115:AA116)</f>
+        <f t="shared" ref="AA117" si="199">SUM(AA115:AA116)</f>
         <v>-47088</v>
       </c>
       <c r="AB117" s="17">
-        <f t="shared" ref="AB117" si="196">SUM(AB115:AB116)</f>
+        <f t="shared" ref="AB117" si="200">SUM(AB115:AB116)</f>
         <v>-87550</v>
       </c>
       <c r="AC117" s="17">
-        <f t="shared" ref="AC117" si="197">SUM(AC115:AC116)</f>
+        <f t="shared" ref="AC117" si="201">SUM(AC115:AC116)</f>
         <v>0</v>
       </c>
       <c r="AD117" s="17">
-        <f t="shared" ref="AD117" si="198">SUM(AD115:AD116)</f>
+        <f t="shared" ref="AD117" si="202">SUM(AD115:AD116)</f>
         <v>0</v>
       </c>
       <c r="AE117" s="17"/>
@@ -15600,59 +15603,59 @@
       <c r="AP117" s="17"/>
       <c r="AQ117" s="17"/>
       <c r="AR117" s="17">
-        <f t="shared" ref="AR117:BA117" si="199">SUM(AR115:AR116)</f>
+        <f t="shared" ref="AR117:BA117" si="203">SUM(AR115:AR116)</f>
         <v>0</v>
       </c>
       <c r="AS117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AT117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AU117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AV117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AW117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AX117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AY117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-6889</v>
       </c>
       <c r="AZ117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-3089</v>
       </c>
       <c r="BA117" s="17">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-132901</v>
       </c>
       <c r="BB117" s="17">
-        <f t="shared" ref="BB117" si="200">SUM(BB115:BB116)</f>
+        <f t="shared" ref="BB117" si="204">SUM(BB115:BB116)</f>
         <v>-204808</v>
       </c>
       <c r="BC117" s="17">
-        <f t="shared" ref="BC117" si="201">SUM(BC115:BC116)</f>
+        <f t="shared" ref="BC117" si="205">SUM(BC115:BC116)</f>
         <v>0</v>
       </c>
       <c r="BD117" s="17">
-        <f t="shared" ref="BD117" si="202">SUM(BD115:BD116)</f>
+        <f t="shared" ref="BD117" si="206">SUM(BD115:BD116)</f>
         <v>0</v>
       </c>
       <c r="BE117" s="17">
-        <f t="shared" ref="BE117" si="203">SUM(BE115:BE116)</f>
+        <f t="shared" ref="BE117" si="207">SUM(BE115:BE116)</f>
         <v>0</v>
       </c>
       <c r="BF117" s="17"/>
@@ -15803,7 +15806,10 @@
       <c r="U119" s="5">
         <v>0</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="5">
+        <f>BA119-U119-T119-S119</f>
+        <v>0</v>
+      </c>
       <c r="W119" s="43">
         <v>0</v>
       </c>
@@ -15915,7 +15921,10 @@
       <c r="U120" s="5">
         <v>58290</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="5">
+        <f>BA120-U120-T120-S120</f>
+        <v>24604</v>
+      </c>
       <c r="W120" s="43">
         <v>28130</v>
       </c>
@@ -16030,7 +16039,10 @@
       <c r="U121" s="5">
         <v>0</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="5">
+        <f>BA121-U121-T121-S121</f>
+        <v>0</v>
+      </c>
       <c r="W121" s="43">
         <v>0</v>
       </c>
@@ -16142,7 +16154,10 @@
       <c r="U122" s="5">
         <v>0</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="5">
+        <f>BA122-U122-T122-S122</f>
+        <v>0</v>
+      </c>
       <c r="W122" s="43">
         <v>0</v>
       </c>
@@ -16426,15 +16441,42 @@
       <c r="S125" s="43"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
-      <c r="W125" s="43"/>
-      <c r="X125" s="5"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="43"/>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5"/>
-      <c r="AD125" s="5"/>
+      <c r="V125" s="5">
+        <f t="shared" ref="P125:AA125" si="208">V7*V126</f>
+        <v>0</v>
+      </c>
+      <c r="W125" s="43">
+        <f t="shared" si="208"/>
+        <v>1945468.03416</v>
+      </c>
+      <c r="X125" s="5">
+        <f t="shared" si="208"/>
+        <v>1301448.67995</v>
+      </c>
+      <c r="Y125" s="5">
+        <f t="shared" si="208"/>
+        <v>734344.79999999993</v>
+      </c>
+      <c r="Z125" s="5">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="43">
+        <f t="shared" si="208"/>
+        <v>449263.66785999999</v>
+      </c>
+      <c r="AB125" s="5">
+        <f>AB7*AB126</f>
+        <v>436993.68543999997</v>
+      </c>
+      <c r="AC125" s="5">
+        <f t="shared" ref="AC125:AD125" si="209">AC7*AC126</f>
+        <v>0</v>
+      </c>
+      <c r="AD125" s="5">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
       <c r="AG125" s="5"/>
@@ -16456,12 +16498,30 @@
       <c r="AW125" s="5"/>
       <c r="AX125" s="5"/>
       <c r="AY125" s="5"/>
-      <c r="AZ125" s="5"/>
-      <c r="BA125" s="5"/>
-      <c r="BB125" s="5"/>
-      <c r="BC125" s="5"/>
-      <c r="BD125" s="5"/>
-      <c r="BE125" s="5"/>
+      <c r="AZ125" s="5">
+        <f>AZ7*AZ126</f>
+        <v>1059602.7779000001</v>
+      </c>
+      <c r="BA125" s="5">
+        <f t="shared" ref="BA125:BE125" si="210">BA7*BA126</f>
+        <v>1877554.4681999998</v>
+      </c>
+      <c r="BB125" s="5">
+        <f t="shared" si="210"/>
+        <v>885575.22896000009</v>
+      </c>
+      <c r="BC125" s="5">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="BD125" s="5">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="BE125" s="5">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
       <c r="BF125" s="5"/>
       <c r="BG125" s="5"/>
       <c r="BH125" s="5"/>
@@ -16516,15 +16576,42 @@
       <c r="S126" s="43"/>
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
-      <c r="W126" s="43"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
-      <c r="AA126" s="43"/>
-      <c r="AB126" s="5"/>
-      <c r="AC126" s="5"/>
-      <c r="AD126" s="5"/>
+      <c r="V126" s="5">
+        <f t="shared" ref="P126:AA126" si="211">V54</f>
+        <v>0</v>
+      </c>
+      <c r="W126" s="43">
+        <f t="shared" si="211"/>
+        <v>298843.016</v>
+      </c>
+      <c r="X126" s="5">
+        <f t="shared" si="211"/>
+        <v>300565.51500000001</v>
+      </c>
+      <c r="Y126" s="5">
+        <f t="shared" si="211"/>
+        <v>305977</v>
+      </c>
+      <c r="Z126" s="5">
+        <f t="shared" si="211"/>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="43">
+        <f t="shared" si="211"/>
+        <v>307714.84100000001</v>
+      </c>
+      <c r="AB126" s="5">
+        <f>AB54</f>
+        <v>307742.03200000001</v>
+      </c>
+      <c r="AC126" s="5">
+        <f t="shared" ref="AC126:AD126" si="212">AC54</f>
+        <v>0</v>
+      </c>
+      <c r="AD126" s="5">
+        <f t="shared" si="212"/>
+        <v>0</v>
+      </c>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
       <c r="AG126" s="5"/>
@@ -16546,12 +16633,30 @@
       <c r="AW126" s="5"/>
       <c r="AX126" s="5"/>
       <c r="AY126" s="5"/>
-      <c r="AZ126" s="5"/>
-      <c r="BA126" s="5"/>
-      <c r="BB126" s="5"/>
-      <c r="BC126" s="5"/>
-      <c r="BD126" s="5"/>
-      <c r="BE126" s="5"/>
+      <c r="AZ126" s="5">
+        <f>AZ54</f>
+        <v>99028.297000000006</v>
+      </c>
+      <c r="BA126" s="5">
+        <f t="shared" ref="BA126:BE126" si="213">BA54</f>
+        <v>185896.48199999999</v>
+      </c>
+      <c r="BB126" s="5">
+        <f t="shared" si="213"/>
+        <v>303279.18800000002</v>
+      </c>
+      <c r="BC126" s="5">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="BD126" s="5">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="BE126" s="5">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
       <c r="BF126" s="5"/>
       <c r="BG126" s="5"/>
       <c r="BH126" s="5"/>
@@ -16582,365 +16687,277 @@
       <c r="CG126" s="5"/>
       <c r="CH126" s="5"/>
     </row>
-    <row r="127" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5" t="s">
+    <row r="127" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="78" t="s">
         <v>439</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="43"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
-      <c r="W127" s="43"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
-      <c r="AA127" s="43"/>
-      <c r="AB127" s="5"/>
-      <c r="AC127" s="5"/>
-      <c r="AD127" s="5"/>
-      <c r="AE127" s="5"/>
-      <c r="AF127" s="5"/>
-      <c r="AG127" s="5"/>
-      <c r="AH127" s="5"/>
-      <c r="AI127" s="5"/>
-      <c r="AJ127" s="5"/>
-      <c r="AK127" s="5"/>
-      <c r="AL127" s="5"/>
-      <c r="AM127" s="5"/>
-      <c r="AN127" s="5"/>
-      <c r="AO127" s="5"/>
-      <c r="AP127" s="5"/>
-      <c r="AQ127" s="5"/>
-      <c r="AR127" s="5"/>
-      <c r="AS127" s="5"/>
-      <c r="AT127" s="5"/>
-      <c r="AU127" s="5"/>
-      <c r="AV127" s="5"/>
-      <c r="AW127" s="5"/>
-      <c r="AX127" s="5"/>
-      <c r="AY127" s="5"/>
-      <c r="AZ127" s="5"/>
-      <c r="BA127" s="5"/>
-      <c r="BB127" s="5"/>
-      <c r="BC127" s="5"/>
-      <c r="BD127" s="5"/>
-      <c r="BE127" s="5"/>
-      <c r="BF127" s="5"/>
-      <c r="BG127" s="5"/>
-      <c r="BH127" s="5"/>
-      <c r="BI127" s="5"/>
-      <c r="BJ127" s="5"/>
-      <c r="BK127" s="5"/>
-      <c r="BL127" s="5"/>
-      <c r="BM127" s="5"/>
-      <c r="BN127" s="5"/>
-      <c r="BO127" s="5"/>
-      <c r="BP127" s="5"/>
-      <c r="BQ127" s="5"/>
-      <c r="BR127" s="5"/>
-      <c r="BS127" s="5"/>
-      <c r="BT127" s="5"/>
-      <c r="BU127" s="5"/>
-      <c r="BV127" s="5"/>
-      <c r="BW127" s="5"/>
-      <c r="BX127" s="5"/>
-      <c r="BY127" s="5"/>
-      <c r="BZ127" s="5"/>
-      <c r="CA127" s="5"/>
-      <c r="CB127" s="5"/>
-      <c r="CC127" s="5"/>
-      <c r="CD127" s="5"/>
-      <c r="CE127" s="5"/>
-      <c r="CF127" s="5"/>
-      <c r="CG127" s="5"/>
-      <c r="CH127" s="5"/>
-    </row>
-    <row r="128" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5" t="s">
+      <c r="E127" s="79"/>
+      <c r="O127" s="79"/>
+      <c r="S127" s="79"/>
+      <c r="V127" s="78">
+        <f t="shared" ref="P127:AA127" si="214">V125/SUM(S26:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W127" s="79">
+        <f t="shared" si="214"/>
+        <v>11.199774527995579</v>
+      </c>
+      <c r="X127" s="78">
+        <f t="shared" si="214"/>
+        <v>6.3563437979858168</v>
+      </c>
+      <c r="Y127" s="78">
+        <f t="shared" si="214"/>
+        <v>3.5566658594468925</v>
+      </c>
+      <c r="Z127" s="78">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="79">
+        <f t="shared" si="214"/>
+        <v>2.0915440775605214</v>
+      </c>
+      <c r="AB127" s="78">
+        <f>AB125/SUM(Y26:AB26)</f>
+        <v>1.9392723205481517</v>
+      </c>
+      <c r="AC127" s="78">
+        <f t="shared" ref="AC127:AD127" si="215">AC125/SUM(Z26:AC26)</f>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="78">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="AZ127" s="78">
+        <f>AZ125/AZ26</f>
+        <v>9.8551198673710463</v>
+      </c>
+      <c r="BA127" s="78">
+        <f t="shared" ref="BA127:BE127" si="216">BA125/BA26</f>
+        <v>12.354282703847975</v>
+      </c>
+      <c r="BB127" s="78">
+        <f t="shared" si="216"/>
+        <v>4.3305470987554715</v>
+      </c>
+      <c r="BC127" s="78" t="e">
+        <f t="shared" si="216"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD127" s="78" t="e">
+        <f t="shared" si="216"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE127" s="78" t="e">
+        <f t="shared" si="216"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="43"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="43"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="43"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-      <c r="AA128" s="43"/>
-      <c r="AB128" s="5"/>
-      <c r="AC128" s="5"/>
-      <c r="AD128" s="5"/>
-      <c r="AE128" s="5"/>
-      <c r="AF128" s="5"/>
-      <c r="AG128" s="5"/>
-      <c r="AH128" s="5"/>
-      <c r="AI128" s="5"/>
-      <c r="AJ128" s="5"/>
-      <c r="AK128" s="5"/>
-      <c r="AL128" s="5"/>
-      <c r="AM128" s="5"/>
-      <c r="AN128" s="5"/>
-      <c r="AO128" s="5"/>
-      <c r="AP128" s="5"/>
-      <c r="AQ128" s="5"/>
-      <c r="AR128" s="5"/>
-      <c r="AS128" s="5"/>
-      <c r="AT128" s="5"/>
-      <c r="AU128" s="5"/>
-      <c r="AV128" s="5"/>
-      <c r="AW128" s="5"/>
-      <c r="AX128" s="5"/>
-      <c r="AY128" s="5"/>
-      <c r="AZ128" s="5"/>
-      <c r="BA128" s="5"/>
-      <c r="BB128" s="5"/>
-      <c r="BC128" s="5"/>
-      <c r="BD128" s="5"/>
-      <c r="BE128" s="5"/>
-      <c r="BF128" s="5"/>
-      <c r="BG128" s="5"/>
-      <c r="BH128" s="5"/>
-      <c r="BI128" s="5"/>
-      <c r="BJ128" s="5"/>
-      <c r="BK128" s="5"/>
-      <c r="BL128" s="5"/>
-      <c r="BM128" s="5"/>
-      <c r="BN128" s="5"/>
-      <c r="BO128" s="5"/>
-      <c r="BP128" s="5"/>
-      <c r="BQ128" s="5"/>
-      <c r="BR128" s="5"/>
-      <c r="BS128" s="5"/>
-      <c r="BT128" s="5"/>
-      <c r="BU128" s="5"/>
-      <c r="BV128" s="5"/>
-      <c r="BW128" s="5"/>
-      <c r="BX128" s="5"/>
-      <c r="BY128" s="5"/>
-      <c r="BZ128" s="5"/>
-      <c r="CA128" s="5"/>
-      <c r="CB128" s="5"/>
-      <c r="CC128" s="5"/>
-      <c r="CD128" s="5"/>
-      <c r="CE128" s="5"/>
-      <c r="CF128" s="5"/>
-      <c r="CG128" s="5"/>
-      <c r="CH128" s="5"/>
-    </row>
-    <row r="129" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5" t="s">
+      <c r="E128" s="79"/>
+      <c r="O128" s="79"/>
+      <c r="S128" s="79"/>
+      <c r="V128" s="78">
+        <f t="shared" ref="P128:AA128" si="217">V125/SUM(S51:V51)</f>
+        <v>0</v>
+      </c>
+      <c r="W128" s="79">
+        <f t="shared" si="217"/>
+        <v>-7.7954049596499528</v>
+      </c>
+      <c r="X128" s="78">
+        <f t="shared" si="217"/>
+        <v>-5.1117387272191674</v>
+      </c>
+      <c r="Y128" s="78">
+        <f t="shared" si="217"/>
+        <v>-4.5165712317561457</v>
+      </c>
+      <c r="Z128" s="78">
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="79">
+        <f t="shared" si="217"/>
+        <v>-3.119778256727197</v>
+      </c>
+      <c r="AB128" s="78">
+        <f>AB125/SUM(Y51:AB51)</f>
+        <v>-3.4706277832136729</v>
+      </c>
+      <c r="AC128" s="78">
+        <f t="shared" ref="AC128:AD128" si="218">AC125/SUM(Z51:AC51)</f>
+        <v>0</v>
+      </c>
+      <c r="AD128" s="78">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="AZ128" s="78">
+        <f>AZ125/AZ51</f>
+        <v>-13.087494014549858</v>
+      </c>
+      <c r="BA128" s="78">
+        <f t="shared" ref="BA128:BE128" si="219">BA125/BA51</f>
+        <v>-8.0202067816303071</v>
+      </c>
+      <c r="BB128" s="78">
+        <f t="shared" si="219"/>
+        <v>-5.5978206634639704</v>
+      </c>
+      <c r="BC128" s="78" t="e">
+        <f t="shared" si="219"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD128" s="78" t="e">
+        <f t="shared" si="219"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE128" s="78" t="e">
+        <f t="shared" si="219"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="78" t="s">
         <v>441</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="43"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
-      <c r="W129" s="43"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
-      <c r="AA129" s="43"/>
-      <c r="AB129" s="5"/>
-      <c r="AC129" s="5"/>
-      <c r="AD129" s="5"/>
-      <c r="AE129" s="5"/>
-      <c r="AF129" s="5"/>
-      <c r="AG129" s="5"/>
-      <c r="AH129" s="5"/>
-      <c r="AI129" s="5"/>
-      <c r="AJ129" s="5"/>
-      <c r="AK129" s="5"/>
-      <c r="AL129" s="5"/>
-      <c r="AM129" s="5"/>
-      <c r="AN129" s="5"/>
-      <c r="AO129" s="5"/>
-      <c r="AP129" s="5"/>
-      <c r="AQ129" s="5"/>
-      <c r="AR129" s="5"/>
-      <c r="AS129" s="5"/>
-      <c r="AT129" s="5"/>
-      <c r="AU129" s="5"/>
-      <c r="AV129" s="5"/>
-      <c r="AW129" s="5"/>
-      <c r="AX129" s="5"/>
-      <c r="AY129" s="5"/>
-      <c r="AZ129" s="5"/>
-      <c r="BA129" s="5"/>
-      <c r="BB129" s="5"/>
-      <c r="BC129" s="5"/>
-      <c r="BD129" s="5"/>
-      <c r="BE129" s="5"/>
-      <c r="BF129" s="5"/>
-      <c r="BG129" s="5"/>
-      <c r="BH129" s="5"/>
-      <c r="BI129" s="5"/>
-      <c r="BJ129" s="5"/>
-      <c r="BK129" s="5"/>
-      <c r="BL129" s="5"/>
-      <c r="BM129" s="5"/>
-      <c r="BN129" s="5"/>
-      <c r="BO129" s="5"/>
-      <c r="BP129" s="5"/>
-      <c r="BQ129" s="5"/>
-      <c r="BR129" s="5"/>
-      <c r="BS129" s="5"/>
-      <c r="BT129" s="5"/>
-      <c r="BU129" s="5"/>
-      <c r="BV129" s="5"/>
-      <c r="BW129" s="5"/>
-      <c r="BX129" s="5"/>
-      <c r="BY129" s="5"/>
-      <c r="BZ129" s="5"/>
-      <c r="CA129" s="5"/>
-      <c r="CB129" s="5"/>
-      <c r="CC129" s="5"/>
-      <c r="CD129" s="5"/>
-      <c r="CE129" s="5"/>
-      <c r="CF129" s="5"/>
-      <c r="CG129" s="5"/>
-      <c r="CH129" s="5"/>
-    </row>
-    <row r="130" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5" t="s">
+      <c r="E129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="S129" s="79"/>
+      <c r="V129" s="78">
+        <f t="shared" ref="P129:AA129" si="220">V125/V108</f>
+        <v>0</v>
+      </c>
+      <c r="W129" s="79">
+        <f t="shared" si="220"/>
+        <v>2.9594493769309755</v>
+      </c>
+      <c r="X129" s="78">
+        <f t="shared" si="220"/>
+        <v>1.9899705199815292</v>
+      </c>
+      <c r="Y129" s="78">
+        <f t="shared" si="220"/>
+        <v>1.1923969239562493</v>
+      </c>
+      <c r="Z129" s="78">
+        <f t="shared" si="220"/>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="79">
+        <f t="shared" si="220"/>
+        <v>0.74156844234924379</v>
+      </c>
+      <c r="AB129" s="78">
+        <f>AB125/AB108</f>
+        <v>0.75380519363758514</v>
+      </c>
+      <c r="AC129" s="78" t="e">
+        <f t="shared" ref="AC129:AD129" si="221">AC125/AC108</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD129" s="78" t="e">
+        <f t="shared" si="221"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ129" s="78">
+        <f>AZ125/AZ108</f>
+        <v>-2.7550630987358362</v>
+      </c>
+      <c r="BA129" s="78">
+        <f t="shared" ref="BA129:BE129" si="222">BA125/BA108</f>
+        <v>2.7341778601364788</v>
+      </c>
+      <c r="BB129" s="78">
+        <f t="shared" si="222"/>
+        <v>1.4447120021795272</v>
+      </c>
+      <c r="BC129" s="78" t="e">
+        <f t="shared" si="222"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD129" s="78" t="e">
+        <f t="shared" si="222"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE129" s="78" t="e">
+        <f t="shared" si="222"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="43"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="43"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="43"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="43"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-      <c r="AD130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AF130" s="5"/>
-      <c r="AG130" s="5"/>
-      <c r="AH130" s="5"/>
-      <c r="AI130" s="5"/>
-      <c r="AJ130" s="5"/>
-      <c r="AK130" s="5"/>
-      <c r="AL130" s="5"/>
-      <c r="AM130" s="5"/>
-      <c r="AN130" s="5"/>
-      <c r="AO130" s="5"/>
-      <c r="AP130" s="5"/>
-      <c r="AQ130" s="5"/>
-      <c r="AR130" s="5"/>
-      <c r="AS130" s="5"/>
-      <c r="AT130" s="5"/>
-      <c r="AU130" s="5"/>
-      <c r="AV130" s="5"/>
-      <c r="AW130" s="5"/>
-      <c r="AX130" s="5"/>
-      <c r="AY130" s="5"/>
-      <c r="AZ130" s="5"/>
-      <c r="BA130" s="5"/>
-      <c r="BB130" s="5"/>
-      <c r="BC130" s="5"/>
-      <c r="BD130" s="5"/>
-      <c r="BE130" s="5"/>
-      <c r="BF130" s="5"/>
-      <c r="BG130" s="5"/>
-      <c r="BH130" s="5"/>
-      <c r="BI130" s="5"/>
-      <c r="BJ130" s="5"/>
-      <c r="BK130" s="5"/>
-      <c r="BL130" s="5"/>
-      <c r="BM130" s="5"/>
-      <c r="BN130" s="5"/>
-      <c r="BO130" s="5"/>
-      <c r="BP130" s="5"/>
-      <c r="BQ130" s="5"/>
-      <c r="BR130" s="5"/>
-      <c r="BS130" s="5"/>
-      <c r="BT130" s="5"/>
-      <c r="BU130" s="5"/>
-      <c r="BV130" s="5"/>
-      <c r="BW130" s="5"/>
-      <c r="BX130" s="5"/>
-      <c r="BY130" s="5"/>
-      <c r="BZ130" s="5"/>
-      <c r="CA130" s="5"/>
-      <c r="CB130" s="5"/>
-      <c r="CC130" s="5"/>
-      <c r="CD130" s="5"/>
-      <c r="CE130" s="5"/>
-      <c r="CF130" s="5"/>
-      <c r="CG130" s="5"/>
-      <c r="CH130" s="5"/>
+      <c r="E130" s="79"/>
+      <c r="O130" s="79"/>
+      <c r="S130" s="79"/>
+      <c r="V130" s="78">
+        <f t="shared" ref="P130:AA130" si="223">V125/SUM(S117:V117)</f>
+        <v>0</v>
+      </c>
+      <c r="W130" s="79">
+        <f t="shared" si="223"/>
+        <v>-11.358871708675624</v>
+      </c>
+      <c r="X130" s="78">
+        <f t="shared" si="223"/>
+        <v>-5.9300156740390397</v>
+      </c>
+      <c r="Y130" s="78">
+        <f t="shared" si="223"/>
+        <v>-3.4828325752797049</v>
+      </c>
+      <c r="Z130" s="78">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="AA130" s="79">
+        <f t="shared" si="223"/>
+        <v>-2.416422393704853</v>
+      </c>
+      <c r="AB130" s="78">
+        <f>AB125/SUM(Y117:AB117)</f>
+        <v>-2.1009715832996787</v>
+      </c>
+      <c r="AC130" s="78">
+        <f t="shared" ref="AC130:AD130" si="224">AC125/SUM(Z117:AC117)</f>
+        <v>0</v>
+      </c>
+      <c r="AD130" s="78">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AZ130" s="78">
+        <f>AZ125/AZ117</f>
+        <v>-343.02453153123992</v>
+      </c>
+      <c r="BA130" s="78">
+        <f t="shared" ref="BA130:BE130" si="225">BA125/BA117</f>
+        <v>-14.127466822672513</v>
+      </c>
+      <c r="BB130" s="78">
+        <f t="shared" si="225"/>
+        <v>-4.3239288941838216</v>
+      </c>
+      <c r="BC130" s="78" t="e">
+        <f t="shared" si="225"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD130" s="78" t="e">
+        <f t="shared" si="225"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE130" s="78" t="e">
+        <f t="shared" si="225"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="131" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
@@ -17208,275 +17225,185 @@
       <c r="CG133" s="18"/>
       <c r="CH133" s="18"/>
     </row>
-    <row r="134" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5" t="s">
+    <row r="134" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="43"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="43"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
-      <c r="AA134" s="43"/>
-      <c r="AB134" s="5"/>
-      <c r="AC134" s="5"/>
-      <c r="AD134" s="5"/>
-      <c r="AE134" s="5"/>
-      <c r="AF134" s="5"/>
-      <c r="AG134" s="5"/>
-      <c r="AH134" s="5"/>
-      <c r="AI134" s="5"/>
-      <c r="AJ134" s="5"/>
-      <c r="AK134" s="5"/>
-      <c r="AL134" s="5"/>
-      <c r="AM134" s="5"/>
-      <c r="AN134" s="5"/>
-      <c r="AO134" s="5"/>
-      <c r="AP134" s="5"/>
-      <c r="AQ134" s="5"/>
-      <c r="AR134" s="5"/>
-      <c r="AS134" s="5"/>
-      <c r="AT134" s="5"/>
-      <c r="AU134" s="5"/>
-      <c r="AV134" s="5"/>
-      <c r="AW134" s="5"/>
-      <c r="AX134" s="5"/>
-      <c r="AY134" s="5"/>
-      <c r="AZ134" s="5"/>
-      <c r="BA134" s="5"/>
-      <c r="BB134" s="5"/>
-      <c r="BC134" s="5"/>
-      <c r="BD134" s="5"/>
-      <c r="BE134" s="5"/>
-      <c r="BF134" s="5"/>
-      <c r="BG134" s="5"/>
-      <c r="BH134" s="5"/>
-      <c r="BI134" s="5"/>
-      <c r="BJ134" s="5"/>
-      <c r="BK134" s="5"/>
-      <c r="BL134" s="5"/>
-      <c r="BM134" s="5"/>
-      <c r="BN134" s="5"/>
-      <c r="BO134" s="5"/>
-      <c r="BP134" s="5"/>
-      <c r="BQ134" s="5"/>
-      <c r="BR134" s="5"/>
-      <c r="BS134" s="5"/>
-      <c r="BT134" s="5"/>
-      <c r="BU134" s="5"/>
-      <c r="BV134" s="5"/>
-      <c r="BW134" s="5"/>
-      <c r="BX134" s="5"/>
-      <c r="BY134" s="5"/>
-      <c r="BZ134" s="5"/>
-      <c r="CA134" s="5"/>
-      <c r="CB134" s="5"/>
-      <c r="CC134" s="5"/>
-      <c r="CD134" s="5"/>
-      <c r="CE134" s="5"/>
-      <c r="CF134" s="5"/>
-      <c r="CG134" s="5"/>
-      <c r="CH134" s="5"/>
-    </row>
-    <row r="135" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5" t="s">
+      <c r="E134" s="81"/>
+      <c r="O134" s="81"/>
+      <c r="S134" s="81"/>
+      <c r="V134" s="80" t="e">
+        <f>(V26-R26)/ABS(R26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W134" s="81">
+        <f t="shared" ref="W134:AA134" si="226">(W26-S26)/ABS(S26)</f>
+        <v>1.4546793412772794</v>
+      </c>
+      <c r="X134" s="80">
+        <f t="shared" si="226"/>
+        <v>0.9301809900515402</v>
+      </c>
+      <c r="Y134" s="80">
+        <f t="shared" si="226"/>
+        <v>4.6674255976581557E-2</v>
+      </c>
+      <c r="Z134" s="80">
+        <f t="shared" si="226"/>
+        <v>-2.9578266339184089E-2</v>
+      </c>
+      <c r="AA134" s="81">
+        <f t="shared" si="226"/>
+        <v>0.28103523508236067</v>
+      </c>
+      <c r="AB134" s="80">
+        <f>(AB26-X26)/ABS(X26)</f>
+        <v>0.16361350017077034</v>
+      </c>
+      <c r="AZ134" s="80">
+        <f>(AZ26-AY26)/ABS(AY26)</f>
+        <v>0.40667765654028309</v>
+      </c>
+      <c r="BA134" s="80">
+        <f t="shared" ref="BA134:BE134" si="227">(BA26-AZ26)/ABS(AZ26)</f>
+        <v>0.41349355456760728</v>
+      </c>
+      <c r="BB134" s="80">
+        <f t="shared" si="227"/>
+        <v>0.34557430120545352</v>
+      </c>
+      <c r="BC134" s="80">
+        <f t="shared" si="227"/>
+        <v>-1</v>
+      </c>
+      <c r="BD134" s="80" t="e">
+        <f t="shared" si="227"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE134" s="80" t="e">
+        <f t="shared" si="227"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="43"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="43"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
-      <c r="AD135" s="5"/>
-      <c r="AE135" s="5"/>
-      <c r="AF135" s="5"/>
-      <c r="AG135" s="5"/>
-      <c r="AH135" s="5"/>
-      <c r="AI135" s="5"/>
-      <c r="AJ135" s="5"/>
-      <c r="AK135" s="5"/>
-      <c r="AL135" s="5"/>
-      <c r="AM135" s="5"/>
-      <c r="AN135" s="5"/>
-      <c r="AO135" s="5"/>
-      <c r="AP135" s="5"/>
-      <c r="AQ135" s="5"/>
-      <c r="AR135" s="5"/>
-      <c r="AS135" s="5"/>
-      <c r="AT135" s="5"/>
-      <c r="AU135" s="5"/>
-      <c r="AV135" s="5"/>
-      <c r="AW135" s="5"/>
-      <c r="AX135" s="5"/>
-      <c r="AY135" s="5"/>
-      <c r="AZ135" s="5"/>
-      <c r="BA135" s="5"/>
-      <c r="BB135" s="5"/>
-      <c r="BC135" s="5"/>
-      <c r="BD135" s="5"/>
-      <c r="BE135" s="5"/>
-      <c r="BF135" s="5"/>
-      <c r="BG135" s="5"/>
-      <c r="BH135" s="5"/>
-      <c r="BI135" s="5"/>
-      <c r="BJ135" s="5"/>
-      <c r="BK135" s="5"/>
-      <c r="BL135" s="5"/>
-      <c r="BM135" s="5"/>
-      <c r="BN135" s="5"/>
-      <c r="BO135" s="5"/>
-      <c r="BP135" s="5"/>
-      <c r="BQ135" s="5"/>
-      <c r="BR135" s="5"/>
-      <c r="BS135" s="5"/>
-      <c r="BT135" s="5"/>
-      <c r="BU135" s="5"/>
-      <c r="BV135" s="5"/>
-      <c r="BW135" s="5"/>
-      <c r="BX135" s="5"/>
-      <c r="BY135" s="5"/>
-      <c r="BZ135" s="5"/>
-      <c r="CA135" s="5"/>
-      <c r="CB135" s="5"/>
-      <c r="CC135" s="5"/>
-      <c r="CD135" s="5"/>
-      <c r="CE135" s="5"/>
-      <c r="CF135" s="5"/>
-      <c r="CG135" s="5"/>
-      <c r="CH135" s="5"/>
-    </row>
-    <row r="136" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5" t="s">
+      <c r="E135" s="81"/>
+      <c r="O135" s="81"/>
+      <c r="S135" s="81"/>
+      <c r="V135" s="80" t="e">
+        <f>(V51-R51)/ABS(R51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W135" s="81">
+        <f t="shared" ref="W135:AA135" si="228">(W51-S51)/ABS(S51)</f>
+        <v>-0.54614488044361242</v>
+      </c>
+      <c r="X135" s="80">
+        <f t="shared" si="228"/>
+        <v>-0.12858894451823849</v>
+      </c>
+      <c r="Y135" s="80">
+        <f t="shared" si="228"/>
+        <v>0.71573256582785583</v>
+      </c>
+      <c r="Z135" s="80">
+        <f t="shared" si="228"/>
+        <v>0.11523616982172395</v>
+      </c>
+      <c r="AA135" s="81">
+        <f t="shared" si="228"/>
+        <v>0.32426443713450293</v>
+      </c>
+      <c r="AB135" s="80">
+        <f>(AB51-X51)/ABS(X51)</f>
+        <v>0.40951066044995699</v>
+      </c>
+      <c r="AZ135" s="80">
+        <f>(AZ51-AY51)/ABS(AY51)</f>
+        <v>0.29889417123459677</v>
+      </c>
+      <c r="BA135" s="80">
+        <f t="shared" ref="BA135:BE135" si="229">(BA51-AZ51)/ABS(AZ51)</f>
+        <v>-1.8914812939243852</v>
+      </c>
+      <c r="BB135" s="80">
+        <f t="shared" si="229"/>
+        <v>0.32422907865341322</v>
+      </c>
+      <c r="BC135" s="80">
+        <f t="shared" si="229"/>
+        <v>1</v>
+      </c>
+      <c r="BD135" s="80" t="e">
+        <f t="shared" si="229"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE135" s="80" t="e">
+        <f t="shared" si="229"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="43"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="43"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="W136" s="43"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
-      <c r="AA136" s="43"/>
-      <c r="AB136" s="5"/>
-      <c r="AC136" s="5"/>
-      <c r="AD136" s="5"/>
-      <c r="AE136" s="5"/>
-      <c r="AF136" s="5"/>
-      <c r="AG136" s="5"/>
-      <c r="AH136" s="5"/>
-      <c r="AI136" s="5"/>
-      <c r="AJ136" s="5"/>
-      <c r="AK136" s="5"/>
-      <c r="AL136" s="5"/>
-      <c r="AM136" s="5"/>
-      <c r="AN136" s="5"/>
-      <c r="AO136" s="5"/>
-      <c r="AP136" s="5"/>
-      <c r="AQ136" s="5"/>
-      <c r="AR136" s="5"/>
-      <c r="AS136" s="5"/>
-      <c r="AT136" s="5"/>
-      <c r="AU136" s="5"/>
-      <c r="AV136" s="5"/>
-      <c r="AW136" s="5"/>
-      <c r="AX136" s="5"/>
-      <c r="AY136" s="5"/>
-      <c r="AZ136" s="5"/>
-      <c r="BA136" s="5"/>
-      <c r="BB136" s="5"/>
-      <c r="BC136" s="5"/>
-      <c r="BD136" s="5"/>
-      <c r="BE136" s="5"/>
-      <c r="BF136" s="5"/>
-      <c r="BG136" s="5"/>
-      <c r="BH136" s="5"/>
-      <c r="BI136" s="5"/>
-      <c r="BJ136" s="5"/>
-      <c r="BK136" s="5"/>
-      <c r="BL136" s="5"/>
-      <c r="BM136" s="5"/>
-      <c r="BN136" s="5"/>
-      <c r="BO136" s="5"/>
-      <c r="BP136" s="5"/>
-      <c r="BQ136" s="5"/>
-      <c r="BR136" s="5"/>
-      <c r="BS136" s="5"/>
-      <c r="BT136" s="5"/>
-      <c r="BU136" s="5"/>
-      <c r="BV136" s="5"/>
-      <c r="BW136" s="5"/>
-      <c r="BX136" s="5"/>
-      <c r="BY136" s="5"/>
-      <c r="BZ136" s="5"/>
-      <c r="CA136" s="5"/>
-      <c r="CB136" s="5"/>
-      <c r="CC136" s="5"/>
-      <c r="CD136" s="5"/>
-      <c r="CE136" s="5"/>
-      <c r="CF136" s="5"/>
-      <c r="CG136" s="5"/>
-      <c r="CH136" s="5"/>
+      <c r="E136" s="81"/>
+      <c r="O136" s="81"/>
+      <c r="S136" s="81"/>
+      <c r="V136" s="80" t="e">
+        <f>(V117-R117)/ABS(R117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W136" s="81">
+        <f t="shared" ref="W136:AA136" si="230">(W117-S117)/ABS(S117)</f>
+        <v>-1.3901387530340905</v>
+      </c>
+      <c r="X136" s="80">
+        <f t="shared" si="230"/>
+        <v>-2.7890625</v>
+      </c>
+      <c r="Y136" s="80">
+        <f t="shared" si="230"/>
+        <v>0.42078289730573992</v>
+      </c>
+      <c r="Z136" s="80">
+        <f t="shared" si="230"/>
+        <v>8.942692136828076E-2</v>
+      </c>
+      <c r="AA136" s="81">
+        <f t="shared" si="230"/>
+        <v>0.28627510420613866</v>
+      </c>
+      <c r="AB136" s="80">
+        <f>(AB117-X117)/ABS(X117)</f>
+        <v>-0.33715158457426497</v>
+      </c>
+      <c r="AZ136" s="80">
+        <f>(AZ117-AY117)/ABS(AY117)</f>
+        <v>0.55160400638699381</v>
+      </c>
+      <c r="BA136" s="80">
+        <f t="shared" ref="BA136:BE136" si="231">(BA117-AZ117)/ABS(AZ117)</f>
+        <v>-42.023955972806732</v>
+      </c>
+      <c r="BB136" s="80">
+        <f t="shared" si="231"/>
+        <v>-0.54105687692342419</v>
+      </c>
+      <c r="BC136" s="80">
+        <f t="shared" si="231"/>
+        <v>1</v>
+      </c>
+      <c r="BD136" s="80" t="e">
+        <f t="shared" si="231"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE136" s="80" t="e">
+        <f t="shared" si="231"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="137" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
@@ -17656,275 +17583,197 @@
       <c r="CG138" s="18"/>
       <c r="CH138" s="18"/>
     </row>
-    <row r="139" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5" t="s">
+    <row r="139" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="43"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="43"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5"/>
-      <c r="V139" s="5"/>
-      <c r="W139" s="43"/>
-      <c r="X139" s="5"/>
-      <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
-      <c r="AA139" s="43"/>
-      <c r="AB139" s="5"/>
-      <c r="AC139" s="5"/>
-      <c r="AD139" s="5"/>
-      <c r="AE139" s="5"/>
-      <c r="AF139" s="5"/>
-      <c r="AG139" s="5"/>
-      <c r="AH139" s="5"/>
-      <c r="AI139" s="5"/>
-      <c r="AJ139" s="5"/>
-      <c r="AK139" s="5"/>
-      <c r="AL139" s="5"/>
-      <c r="AM139" s="5"/>
-      <c r="AN139" s="5"/>
-      <c r="AO139" s="5"/>
-      <c r="AP139" s="5"/>
-      <c r="AQ139" s="5"/>
-      <c r="AR139" s="5"/>
-      <c r="AS139" s="5"/>
-      <c r="AT139" s="5"/>
-      <c r="AU139" s="5"/>
-      <c r="AV139" s="5"/>
-      <c r="AW139" s="5"/>
-      <c r="AX139" s="5"/>
-      <c r="AY139" s="5"/>
-      <c r="AZ139" s="5"/>
-      <c r="BA139" s="5"/>
-      <c r="BB139" s="5"/>
-      <c r="BC139" s="5"/>
-      <c r="BD139" s="5"/>
-      <c r="BE139" s="5"/>
-      <c r="BF139" s="5"/>
-      <c r="BG139" s="5"/>
-      <c r="BH139" s="5"/>
-      <c r="BI139" s="5"/>
-      <c r="BJ139" s="5"/>
-      <c r="BK139" s="5"/>
-      <c r="BL139" s="5"/>
-      <c r="BM139" s="5"/>
-      <c r="BN139" s="5"/>
-      <c r="BO139" s="5"/>
-      <c r="BP139" s="5"/>
-      <c r="BQ139" s="5"/>
-      <c r="BR139" s="5"/>
-      <c r="BS139" s="5"/>
-      <c r="BT139" s="5"/>
-      <c r="BU139" s="5"/>
-      <c r="BV139" s="5"/>
-      <c r="BW139" s="5"/>
-      <c r="BX139" s="5"/>
-      <c r="BY139" s="5"/>
-      <c r="BZ139" s="5"/>
-      <c r="CA139" s="5"/>
-      <c r="CB139" s="5"/>
-      <c r="CC139" s="5"/>
-      <c r="CD139" s="5"/>
-      <c r="CE139" s="5"/>
-      <c r="CF139" s="5"/>
-      <c r="CG139" s="5"/>
-      <c r="CH139" s="5"/>
-    </row>
-    <row r="140" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5" t="s">
+      <c r="E139" s="81"/>
+      <c r="O139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="W139" s="81">
+        <f>W28/W26</f>
+        <v>3.5453256245227444E-4</v>
+      </c>
+      <c r="X139" s="80">
+        <f t="shared" ref="X139:AD139" si="232">X28/X26</f>
+        <v>7.5154469525258491E-2</v>
+      </c>
+      <c r="Y139" s="80">
+        <f t="shared" si="232"/>
+        <v>5.1610731303086806E-2</v>
+      </c>
+      <c r="Z139" s="80">
+        <f t="shared" si="232"/>
+        <v>3.4353442288994861E-2</v>
+      </c>
+      <c r="AA139" s="81">
+        <f t="shared" si="232"/>
+        <v>0.10342111425712644</v>
+      </c>
+      <c r="AB139" s="80">
+        <f t="shared" si="232"/>
+        <v>0.15290915640468028</v>
+      </c>
+      <c r="AC139" s="80" t="e">
+        <f t="shared" si="232"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD139" s="80" t="e">
+        <f t="shared" si="232"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ139" s="80">
+        <f>AZ28/AZ26</f>
+        <v>0.15941516769285144</v>
+      </c>
+      <c r="BA139" s="80">
+        <f t="shared" ref="BA139:BE139" si="233">BA28/BA26</f>
+        <v>-0.2812483550034216</v>
+      </c>
+      <c r="BB139" s="80">
+        <f t="shared" si="233"/>
+        <v>4.4367832954350962E-2</v>
+      </c>
+      <c r="BC139" s="80" t="e">
+        <f t="shared" si="233"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD139" s="80" t="e">
+        <f t="shared" si="233"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE139" s="80" t="e">
+        <f t="shared" si="233"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="43"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="43"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="W140" s="43"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="43"/>
-      <c r="AB140" s="5"/>
-      <c r="AC140" s="5"/>
-      <c r="AD140" s="5"/>
-      <c r="AE140" s="5"/>
-      <c r="AF140" s="5"/>
-      <c r="AG140" s="5"/>
-      <c r="AH140" s="5"/>
-      <c r="AI140" s="5"/>
-      <c r="AJ140" s="5"/>
-      <c r="AK140" s="5"/>
-      <c r="AL140" s="5"/>
-      <c r="AM140" s="5"/>
-      <c r="AN140" s="5"/>
-      <c r="AO140" s="5"/>
-      <c r="AP140" s="5"/>
-      <c r="AQ140" s="5"/>
-      <c r="AR140" s="5"/>
-      <c r="AS140" s="5"/>
-      <c r="AT140" s="5"/>
-      <c r="AU140" s="5"/>
-      <c r="AV140" s="5"/>
-      <c r="AW140" s="5"/>
-      <c r="AX140" s="5"/>
-      <c r="AY140" s="5"/>
-      <c r="AZ140" s="5"/>
-      <c r="BA140" s="5"/>
-      <c r="BB140" s="5"/>
-      <c r="BC140" s="5"/>
-      <c r="BD140" s="5"/>
-      <c r="BE140" s="5"/>
-      <c r="BF140" s="5"/>
-      <c r="BG140" s="5"/>
-      <c r="BH140" s="5"/>
-      <c r="BI140" s="5"/>
-      <c r="BJ140" s="5"/>
-      <c r="BK140" s="5"/>
-      <c r="BL140" s="5"/>
-      <c r="BM140" s="5"/>
-      <c r="BN140" s="5"/>
-      <c r="BO140" s="5"/>
-      <c r="BP140" s="5"/>
-      <c r="BQ140" s="5"/>
-      <c r="BR140" s="5"/>
-      <c r="BS140" s="5"/>
-      <c r="BT140" s="5"/>
-      <c r="BU140" s="5"/>
-      <c r="BV140" s="5"/>
-      <c r="BW140" s="5"/>
-      <c r="BX140" s="5"/>
-      <c r="BY140" s="5"/>
-      <c r="BZ140" s="5"/>
-      <c r="CA140" s="5"/>
-      <c r="CB140" s="5"/>
-      <c r="CC140" s="5"/>
-      <c r="CD140" s="5"/>
-      <c r="CE140" s="5"/>
-      <c r="CF140" s="5"/>
-      <c r="CG140" s="5"/>
-      <c r="CH140" s="5"/>
-    </row>
-    <row r="141" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5" t="s">
+      <c r="E140" s="81"/>
+      <c r="O140" s="81"/>
+      <c r="S140" s="81"/>
+      <c r="W140" s="81">
+        <f>W35/W26</f>
+        <v>-1.1797207374277299</v>
+      </c>
+      <c r="X140" s="80">
+        <f t="shared" ref="X140:AD140" si="234">X35/X26</f>
+        <v>-0.69817120501754282</v>
+      </c>
+      <c r="Y140" s="80">
+        <f t="shared" si="234"/>
+        <v>-0.96048270147089287</v>
+      </c>
+      <c r="Z140" s="80">
+        <f t="shared" si="234"/>
+        <v>-0.53437659150886618</v>
+      </c>
+      <c r="AA140" s="81">
+        <f t="shared" si="234"/>
+        <v>-0.66631894918357359</v>
+      </c>
+      <c r="AB140" s="80">
+        <f t="shared" si="234"/>
+        <v>-0.35843795445145626</v>
+      </c>
+      <c r="AC140" s="80" t="e">
+        <f t="shared" si="234"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD140" s="80" t="e">
+        <f t="shared" si="234"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ140" s="80">
+        <f>AZ35/AZ26</f>
+        <v>-0.27071746126230029</v>
+      </c>
+      <c r="BA140" s="80">
+        <f t="shared" ref="BA140:BE140" si="235">BA35/BA26</f>
+        <v>-1.276938463967995</v>
+      </c>
+      <c r="BB140" s="80">
+        <f t="shared" si="235"/>
+        <v>-0.78215115283992276</v>
+      </c>
+      <c r="BC140" s="80" t="e">
+        <f t="shared" si="235"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD140" s="80" t="e">
+        <f t="shared" si="235"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE140" s="80" t="e">
+        <f t="shared" si="235"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:86" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="80" t="s">
         <v>450</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="43"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="43"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="43"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="43"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
-      <c r="AK141" s="5"/>
-      <c r="AL141" s="5"/>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5"/>
-      <c r="AQ141" s="5"/>
-      <c r="AR141" s="5"/>
-      <c r="AS141" s="5"/>
-      <c r="AT141" s="5"/>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="AZ141" s="5"/>
-      <c r="BA141" s="5"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-      <c r="BE141" s="5"/>
-      <c r="BF141" s="5"/>
-      <c r="BG141" s="5"/>
-      <c r="BH141" s="5"/>
-      <c r="BI141" s="5"/>
-      <c r="BJ141" s="5"/>
-      <c r="BK141" s="5"/>
-      <c r="BL141" s="5"/>
-      <c r="BM141" s="5"/>
-      <c r="BN141" s="5"/>
-      <c r="BO141" s="5"/>
-      <c r="BP141" s="5"/>
-      <c r="BQ141" s="5"/>
-      <c r="BR141" s="5"/>
-      <c r="BS141" s="5"/>
-      <c r="BT141" s="5"/>
-      <c r="BU141" s="5"/>
-      <c r="BV141" s="5"/>
-      <c r="BW141" s="5"/>
-      <c r="BX141" s="5"/>
-      <c r="BY141" s="5"/>
-      <c r="BZ141" s="5"/>
-      <c r="CA141" s="5"/>
-      <c r="CB141" s="5"/>
-      <c r="CC141" s="5"/>
-      <c r="CD141" s="5"/>
-      <c r="CE141" s="5"/>
-      <c r="CF141" s="5"/>
-      <c r="CG141" s="5"/>
-      <c r="CH141" s="5"/>
+      <c r="E141" s="81"/>
+      <c r="O141" s="81"/>
+      <c r="S141" s="81"/>
+      <c r="W141" s="81">
+        <f>W51/W26</f>
+        <v>-1.1938474964546744</v>
+      </c>
+      <c r="X141" s="80">
+        <f t="shared" ref="X141:AD141" si="236">X51/X26</f>
+        <v>-0.68590679044928127</v>
+      </c>
+      <c r="Y141" s="80">
+        <f t="shared" si="236"/>
+        <v>-0.94634348456598305</v>
+      </c>
+      <c r="Z141" s="80">
+        <f t="shared" si="236"/>
+        <v>-0.52005494081516124</v>
+      </c>
+      <c r="AA141" s="81">
+        <f t="shared" si="236"/>
+        <v>-0.62974474698230898</v>
+      </c>
+      <c r="AB141" s="80">
+        <f t="shared" si="236"/>
+        <v>-0.34807145811375129</v>
+      </c>
+      <c r="AC141" s="80" t="e">
+        <f t="shared" si="236"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD141" s="80" t="e">
+        <f t="shared" si="236"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ141" s="80">
+        <f>AZ51/AZ26</f>
+        <v>-0.75301809929500174</v>
+      </c>
+      <c r="BA141" s="80">
+        <f t="shared" ref="BA141:BE141" si="237">BA51/BA26</f>
+        <v>-1.5403945359793652</v>
+      </c>
+      <c r="BB141" s="80">
+        <f t="shared" si="237"/>
+        <v>-0.77361304677375975</v>
+      </c>
+      <c r="BC141" s="80" t="e">
+        <f t="shared" si="237"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD141" s="80" t="e">
+        <f t="shared" si="237"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE141" s="80" t="e">
+        <f t="shared" si="237"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="142" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
@@ -18104,458 +17953,218 @@
       <c r="CG143" s="18"/>
       <c r="CH143" s="18"/>
     </row>
-    <row r="144" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5" t="s">
+    <row r="144" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E144" s="79"/>
+      <c r="O144" s="79"/>
+      <c r="S144" s="79"/>
+      <c r="W144" s="79">
+        <f>SUM(T26:W26)/W126</f>
+        <v>0.58126170162865709</v>
+      </c>
+      <c r="X144" s="78">
+        <f t="shared" ref="X144:AA144" si="238">SUM(U26:X26)/X126</f>
+        <v>0.68120921989337335</v>
+      </c>
+      <c r="Y144" s="78">
+        <f t="shared" si="238"/>
+        <v>0.67478928154730589</v>
+      </c>
+      <c r="Z144" s="78" t="e">
+        <f t="shared" si="238"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA144" s="79">
+        <f t="shared" si="238"/>
+        <v>0.69804887961188711</v>
+      </c>
+      <c r="AB144" s="78">
+        <f>SUM(Y26:AB26)/AB126</f>
+        <v>0.7322334181506932</v>
+      </c>
+    </row>
+    <row r="145" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="E145" s="79"/>
+      <c r="O145" s="79"/>
+      <c r="S145" s="79"/>
+      <c r="W145" s="79">
+        <f>SUM(T35:W35)/W126</f>
+        <v>-0.75787951490892458</v>
+      </c>
+      <c r="X145" s="78">
+        <f t="shared" ref="X145:AA145" si="239">SUM(U35:X35)/X126</f>
+        <v>-0.82883427262106224</v>
+      </c>
+      <c r="Y145" s="78">
+        <f t="shared" si="239"/>
+        <v>-0.56511763956114347</v>
+      </c>
+      <c r="Z145" s="78" t="e">
+        <f t="shared" si="239"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA145" s="79">
+        <f t="shared" si="239"/>
+        <v>-0.4809225304800947</v>
+      </c>
+      <c r="AB145" s="78">
+        <f>SUM(Y35:AB35)/AB126</f>
+        <v>-0.42204504583241331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="43"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="43"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="43"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-      <c r="AA144" s="43"/>
-      <c r="AB144" s="5"/>
-      <c r="AC144" s="5"/>
-      <c r="AD144" s="5"/>
-      <c r="AE144" s="5"/>
-      <c r="AF144" s="5"/>
-      <c r="AG144" s="5"/>
-      <c r="AH144" s="5"/>
-      <c r="AI144" s="5"/>
-      <c r="AJ144" s="5"/>
-      <c r="AK144" s="5"/>
-      <c r="AL144" s="5"/>
-      <c r="AM144" s="5"/>
-      <c r="AN144" s="5"/>
-      <c r="AO144" s="5"/>
-      <c r="AP144" s="5"/>
-      <c r="AQ144" s="5"/>
-      <c r="AR144" s="5"/>
-      <c r="AS144" s="5"/>
-      <c r="AT144" s="5"/>
-      <c r="AU144" s="5"/>
-      <c r="AV144" s="5"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
-      <c r="AY144" s="5"/>
-      <c r="AZ144" s="5"/>
-      <c r="BA144" s="5"/>
-      <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="5"/>
-      <c r="BE144" s="5"/>
-      <c r="BF144" s="5"/>
-      <c r="BG144" s="5"/>
-      <c r="BH144" s="5"/>
-      <c r="BI144" s="5"/>
-      <c r="BJ144" s="5"/>
-      <c r="BK144" s="5"/>
-      <c r="BL144" s="5"/>
-      <c r="BM144" s="5"/>
-      <c r="BN144" s="5"/>
-      <c r="BO144" s="5"/>
-      <c r="BP144" s="5"/>
-      <c r="BQ144" s="5"/>
-      <c r="BR144" s="5"/>
-      <c r="BS144" s="5"/>
-      <c r="BT144" s="5"/>
-      <c r="BU144" s="5"/>
-      <c r="BV144" s="5"/>
-      <c r="BW144" s="5"/>
-      <c r="BX144" s="5"/>
-      <c r="BY144" s="5"/>
-      <c r="BZ144" s="5"/>
-      <c r="CA144" s="5"/>
-      <c r="CB144" s="5"/>
-      <c r="CC144" s="5"/>
-      <c r="CD144" s="5"/>
-      <c r="CE144" s="5"/>
-      <c r="CF144" s="5"/>
-      <c r="CG144" s="5"/>
-      <c r="CH144" s="5"/>
-    </row>
-    <row r="145" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="43"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="43"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="43"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="43"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="43"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5"/>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="5"/>
-      <c r="AT145" s="5"/>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="AZ145" s="5"/>
-      <c r="BA145" s="5"/>
-      <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-      <c r="BE145" s="5"/>
-      <c r="BF145" s="5"/>
-      <c r="BG145" s="5"/>
-      <c r="BH145" s="5"/>
-      <c r="BI145" s="5"/>
-      <c r="BJ145" s="5"/>
-      <c r="BK145" s="5"/>
-      <c r="BL145" s="5"/>
-      <c r="BM145" s="5"/>
-      <c r="BN145" s="5"/>
-      <c r="BO145" s="5"/>
-      <c r="BP145" s="5"/>
-      <c r="BQ145" s="5"/>
-      <c r="BR145" s="5"/>
-      <c r="BS145" s="5"/>
-      <c r="BT145" s="5"/>
-      <c r="BU145" s="5"/>
-      <c r="BV145" s="5"/>
-      <c r="BW145" s="5"/>
-      <c r="BX145" s="5"/>
-      <c r="BY145" s="5"/>
-      <c r="BZ145" s="5"/>
-      <c r="CA145" s="5"/>
-      <c r="CB145" s="5"/>
-      <c r="CC145" s="5"/>
-      <c r="CD145" s="5"/>
-      <c r="CE145" s="5"/>
-      <c r="CF145" s="5"/>
-      <c r="CG145" s="5"/>
-      <c r="CH145" s="5"/>
-    </row>
-    <row r="146" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5" t="s">
+      <c r="E146" s="79"/>
+      <c r="O146" s="79"/>
+      <c r="S146" s="79"/>
+      <c r="W146" s="79">
+        <f>W59/W126</f>
+        <v>1.3925873375605338</v>
+      </c>
+      <c r="X146" s="78">
+        <f t="shared" ref="X146:AA146" si="240">X59/X126</f>
+        <v>1.1107960938233383</v>
+      </c>
+      <c r="Y146" s="78">
+        <f t="shared" si="240"/>
+        <v>0.96679162159247267</v>
+      </c>
+      <c r="Z146" s="78" t="e">
+        <f t="shared" si="240"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA146" s="79">
+        <f t="shared" si="240"/>
+        <v>0.65094357928612223</v>
+      </c>
+      <c r="AB146" s="78">
+        <f>AB59/AB126</f>
+        <v>0.46391452955636558</v>
+      </c>
+      <c r="AZ146" s="78">
+        <f>AZ59/AZ126</f>
+        <v>0.21706926859501582</v>
+      </c>
+      <c r="BA146" s="78">
+        <f t="shared" ref="BA146:BE146" si="241">BA59/BA126</f>
+        <v>2.5870903786118986</v>
+      </c>
+      <c r="BB146" s="78">
+        <f t="shared" si="241"/>
+        <v>0.76305928384376964</v>
+      </c>
+      <c r="BC146" s="78" t="e">
+        <f t="shared" si="241"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD146" s="78" t="e">
+        <f t="shared" si="241"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE146" s="78" t="e">
+        <f t="shared" si="241"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="78" t="s">
         <v>453</v>
       </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="43"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="43"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="43"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="W146" s="43"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-      <c r="AA146" s="43"/>
-      <c r="AB146" s="5"/>
-      <c r="AC146" s="5"/>
-      <c r="AD146" s="5"/>
-      <c r="AE146" s="5"/>
-      <c r="AF146" s="5"/>
-      <c r="AG146" s="5"/>
-      <c r="AH146" s="5"/>
-      <c r="AI146" s="5"/>
-      <c r="AJ146" s="5"/>
-      <c r="AK146" s="5"/>
-      <c r="AL146" s="5"/>
-      <c r="AM146" s="5"/>
-      <c r="AN146" s="5"/>
-      <c r="AO146" s="5"/>
-      <c r="AP146" s="5"/>
-      <c r="AQ146" s="5"/>
-      <c r="AR146" s="5"/>
-      <c r="AS146" s="5"/>
-      <c r="AT146" s="5"/>
-      <c r="AU146" s="5"/>
-      <c r="AV146" s="5"/>
-      <c r="AW146" s="5"/>
-      <c r="AX146" s="5"/>
-      <c r="AY146" s="5"/>
-      <c r="AZ146" s="5"/>
-      <c r="BA146" s="5"/>
-      <c r="BB146" s="5"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="5"/>
-      <c r="BE146" s="5"/>
-      <c r="BF146" s="5"/>
-      <c r="BG146" s="5"/>
-      <c r="BH146" s="5"/>
-      <c r="BI146" s="5"/>
-      <c r="BJ146" s="5"/>
-      <c r="BK146" s="5"/>
-      <c r="BL146" s="5"/>
-      <c r="BM146" s="5"/>
-      <c r="BN146" s="5"/>
-      <c r="BO146" s="5"/>
-      <c r="BP146" s="5"/>
-      <c r="BQ146" s="5"/>
-      <c r="BR146" s="5"/>
-      <c r="BS146" s="5"/>
-      <c r="BT146" s="5"/>
-      <c r="BU146" s="5"/>
-      <c r="BV146" s="5"/>
-      <c r="BW146" s="5"/>
-      <c r="BX146" s="5"/>
-      <c r="BY146" s="5"/>
-      <c r="BZ146" s="5"/>
-      <c r="CA146" s="5"/>
-      <c r="CB146" s="5"/>
-      <c r="CC146" s="5"/>
-      <c r="CD146" s="5"/>
-      <c r="CE146" s="5"/>
-      <c r="CF146" s="5"/>
-      <c r="CG146" s="5"/>
-      <c r="CH146" s="5"/>
-    </row>
-    <row r="147" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="43"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="43"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="43"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="W147" s="43"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-      <c r="AA147" s="43"/>
-      <c r="AB147" s="5"/>
-      <c r="AC147" s="5"/>
-      <c r="AD147" s="5"/>
-      <c r="AE147" s="5"/>
-      <c r="AF147" s="5"/>
-      <c r="AG147" s="5"/>
-      <c r="AH147" s="5"/>
-      <c r="AI147" s="5"/>
-      <c r="AJ147" s="5"/>
-      <c r="AK147" s="5"/>
-      <c r="AL147" s="5"/>
-      <c r="AM147" s="5"/>
-      <c r="AN147" s="5"/>
-      <c r="AO147" s="5"/>
-      <c r="AP147" s="5"/>
-      <c r="AQ147" s="5"/>
-      <c r="AR147" s="5"/>
-      <c r="AS147" s="5"/>
-      <c r="AT147" s="5"/>
-      <c r="AU147" s="5"/>
-      <c r="AV147" s="5"/>
-      <c r="AW147" s="5"/>
-      <c r="AX147" s="5"/>
-      <c r="AY147" s="5"/>
-      <c r="AZ147" s="5"/>
-      <c r="BA147" s="5"/>
-      <c r="BB147" s="5"/>
-      <c r="BC147" s="5"/>
-      <c r="BD147" s="5"/>
-      <c r="BE147" s="5"/>
-      <c r="BF147" s="5"/>
-      <c r="BG147" s="5"/>
-      <c r="BH147" s="5"/>
-      <c r="BI147" s="5"/>
-      <c r="BJ147" s="5"/>
-      <c r="BK147" s="5"/>
-      <c r="BL147" s="5"/>
-      <c r="BM147" s="5"/>
-      <c r="BN147" s="5"/>
-      <c r="BO147" s="5"/>
-      <c r="BP147" s="5"/>
-      <c r="BQ147" s="5"/>
-      <c r="BR147" s="5"/>
-      <c r="BS147" s="5"/>
-      <c r="BT147" s="5"/>
-      <c r="BU147" s="5"/>
-      <c r="BV147" s="5"/>
-      <c r="BW147" s="5"/>
-      <c r="BX147" s="5"/>
-      <c r="BY147" s="5"/>
-      <c r="BZ147" s="5"/>
-      <c r="CA147" s="5"/>
-      <c r="CB147" s="5"/>
-      <c r="CC147" s="5"/>
-      <c r="CD147" s="5"/>
-      <c r="CE147" s="5"/>
-      <c r="CF147" s="5"/>
-      <c r="CG147" s="5"/>
-      <c r="CH147" s="5"/>
-    </row>
-    <row r="148" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="43"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="43"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
-      <c r="W148" s="43"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
-      <c r="AA148" s="43"/>
-      <c r="AB148" s="5"/>
-      <c r="AC148" s="5"/>
-      <c r="AD148" s="5"/>
-      <c r="AE148" s="5"/>
-      <c r="AF148" s="5"/>
-      <c r="AG148" s="5"/>
-      <c r="AH148" s="5"/>
-      <c r="AI148" s="5"/>
-      <c r="AJ148" s="5"/>
-      <c r="AK148" s="5"/>
-      <c r="AL148" s="5"/>
-      <c r="AM148" s="5"/>
-      <c r="AN148" s="5"/>
-      <c r="AO148" s="5"/>
-      <c r="AP148" s="5"/>
-      <c r="AQ148" s="5"/>
-      <c r="AR148" s="5"/>
-      <c r="AS148" s="5"/>
-      <c r="AT148" s="5"/>
-      <c r="AU148" s="5"/>
-      <c r="AV148" s="5"/>
-      <c r="AW148" s="5"/>
-      <c r="AX148" s="5"/>
-      <c r="AY148" s="5"/>
-      <c r="AZ148" s="5"/>
-      <c r="BA148" s="5"/>
-      <c r="BB148" s="5"/>
-      <c r="BC148" s="5"/>
-      <c r="BD148" s="5"/>
-      <c r="BE148" s="5"/>
-      <c r="BF148" s="5"/>
-      <c r="BG148" s="5"/>
-      <c r="BH148" s="5"/>
-      <c r="BI148" s="5"/>
-      <c r="BJ148" s="5"/>
-      <c r="BK148" s="5"/>
-      <c r="BL148" s="5"/>
-      <c r="BM148" s="5"/>
-      <c r="BN148" s="5"/>
-      <c r="BO148" s="5"/>
-      <c r="BP148" s="5"/>
-      <c r="BQ148" s="5"/>
-      <c r="BR148" s="5"/>
-      <c r="BS148" s="5"/>
-      <c r="BT148" s="5"/>
-      <c r="BU148" s="5"/>
-      <c r="BV148" s="5"/>
-      <c r="BW148" s="5"/>
-      <c r="BX148" s="5"/>
-      <c r="BY148" s="5"/>
-      <c r="BZ148" s="5"/>
-      <c r="CA148" s="5"/>
-      <c r="CB148" s="5"/>
-      <c r="CC148" s="5"/>
-      <c r="CD148" s="5"/>
-      <c r="CE148" s="5"/>
-      <c r="CF148" s="5"/>
-      <c r="CG148" s="5"/>
-      <c r="CH148" s="5"/>
+      <c r="E147" s="79"/>
+      <c r="O147" s="79"/>
+      <c r="S147" s="79"/>
+      <c r="W147" s="79">
+        <f>(W87+W88)/W126</f>
+        <v>0.24476730618994957</v>
+      </c>
+      <c r="X147" s="78">
+        <f t="shared" ref="X147:AA147" si="242">(X87+X88)/X126</f>
+        <v>0.14601808194795732</v>
+      </c>
+      <c r="Y147" s="78">
+        <f t="shared" si="242"/>
+        <v>0.12404853959611344</v>
+      </c>
+      <c r="Z147" s="78" t="e">
+        <f t="shared" si="242"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA147" s="79">
+        <f t="shared" si="242"/>
+        <v>0.23726512430383556</v>
+      </c>
+      <c r="AB147" s="78">
+        <f>(AB87+AB88)/AB126</f>
+        <v>0.24344090897534595</v>
+      </c>
+      <c r="AZ147" s="78">
+        <f>(AZ87+AZ88)/AZ126</f>
+        <v>0.73864745952361466</v>
+      </c>
+      <c r="BA147" s="78">
+        <f t="shared" ref="BA147:BE147" si="243">(BA87+BA88)/BA126</f>
+        <v>0.39348243287358181</v>
+      </c>
+      <c r="BB147" s="78">
+        <f t="shared" si="243"/>
+        <v>0.24032311772082426</v>
+      </c>
+      <c r="BC147" s="78" t="e">
+        <f t="shared" si="243"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD147" s="78" t="e">
+        <f t="shared" si="243"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE147" s="78" t="e">
+        <f t="shared" si="243"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="E148" s="79"/>
+      <c r="O148" s="79"/>
+      <c r="S148" s="79"/>
+      <c r="W148" s="79">
+        <f>W108/W126</f>
+        <v>2.1997335216292959</v>
+      </c>
+      <c r="X148" s="78">
+        <f t="shared" ref="X148:Z148" si="244">X108/X126</f>
+        <v>2.1759116311131033</v>
+      </c>
+      <c r="Y148" s="78">
+        <f t="shared" si="244"/>
+        <v>2.0127525925151235</v>
+      </c>
+      <c r="Z148" s="78" t="e">
+        <f t="shared" si="244"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA148" s="79">
+        <f>AA108/AA126</f>
+        <v>1.9688000683723927</v>
+      </c>
+      <c r="AB148" s="78">
+        <f>AB108/AB126</f>
+        <v>1.8837758242916911</v>
+      </c>
     </row>
     <row r="149" spans="1:86" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="18"/>
       <c r="B149" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
@@ -18667,14 +18276,38 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
-      <c r="W150" s="43"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-      <c r="AA150" s="43"/>
-      <c r="AB150" s="5"/>
-      <c r="AC150" s="5"/>
-      <c r="AD150" s="5"/>
+      <c r="W150" s="43">
+        <f>W125-(W59+W60)+(W77+W78+W87+W88)</f>
+        <v>1583490.03416</v>
+      </c>
+      <c r="X150" s="5">
+        <f t="shared" ref="X150:AD150" si="245">X125-(X59+X60)+(X77+X78+X87+X88)</f>
+        <v>992540.67995000002</v>
+      </c>
+      <c r="Y150" s="5">
+        <f t="shared" si="245"/>
+        <v>502088.79999999993</v>
+      </c>
+      <c r="Z150" s="5">
+        <f t="shared" si="245"/>
+        <v>-140911</v>
+      </c>
+      <c r="AA150" s="43">
+        <f t="shared" si="245"/>
+        <v>345538.66785999999</v>
+      </c>
+      <c r="AB150" s="5">
+        <f t="shared" si="245"/>
+        <v>420545.68543999997</v>
+      </c>
+      <c r="AC150" s="5">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
+      <c r="AD150" s="5">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
       <c r="AG150" s="5"/>
@@ -18696,12 +18329,30 @@
       <c r="AW150" s="5"/>
       <c r="AX150" s="5"/>
       <c r="AY150" s="5"/>
-      <c r="AZ150" s="5"/>
-      <c r="BA150" s="5"/>
-      <c r="BB150" s="5"/>
-      <c r="BC150" s="5"/>
-      <c r="BD150" s="5"/>
-      <c r="BE150" s="5"/>
+      <c r="AZ150" s="5">
+        <f t="shared" ref="AZ150:BE150" si="246">AZ125-(AZ59+AZ60)+(AZ77+AZ78+AZ87+AZ88)</f>
+        <v>1136006.7779000001</v>
+      </c>
+      <c r="BA150" s="5">
+        <f t="shared" si="246"/>
+        <v>1456526.4681999998</v>
+      </c>
+      <c r="BB150" s="5">
+        <f t="shared" si="246"/>
+        <v>744664.22896000009</v>
+      </c>
+      <c r="BC150" s="5">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="BD150" s="5">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="BE150" s="5">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
       <c r="BF150" s="5"/>
       <c r="BG150" s="5"/>
       <c r="BH150" s="5"/>
@@ -18735,7 +18386,7 @@
     <row r="151" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -18757,14 +18408,38 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
-      <c r="W151" s="43"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
-      <c r="Z151" s="5"/>
-      <c r="AA151" s="43"/>
-      <c r="AB151" s="5"/>
-      <c r="AC151" s="5"/>
-      <c r="AD151" s="5"/>
+      <c r="W151" s="43">
+        <f>W59-(W81+W82+W87+W88)</f>
+        <v>259006</v>
+      </c>
+      <c r="X151" s="5">
+        <f t="shared" ref="X151:AD151" si="247">X59-(X81+X82+X87+X88)</f>
+        <v>204567</v>
+      </c>
+      <c r="Y151" s="5">
+        <f t="shared" si="247"/>
+        <v>250176</v>
+      </c>
+      <c r="Z151" s="5">
+        <f t="shared" si="247"/>
+        <v>140479</v>
+      </c>
+      <c r="AA151" s="43">
+        <f t="shared" si="247"/>
+        <v>104795</v>
+      </c>
+      <c r="AB151" s="5">
+        <f t="shared" si="247"/>
+        <v>49079</v>
+      </c>
+      <c r="AC151" s="5">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="AD151" s="5">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
       <c r="AG151" s="5"/>
@@ -18786,12 +18461,30 @@
       <c r="AW151" s="5"/>
       <c r="AX151" s="5"/>
       <c r="AY151" s="5"/>
-      <c r="AZ151" s="5"/>
-      <c r="BA151" s="5"/>
-      <c r="BB151" s="5"/>
-      <c r="BC151" s="5"/>
-      <c r="BD151" s="5"/>
-      <c r="BE151" s="5"/>
+      <c r="AZ151" s="5">
+        <f t="shared" ref="AZ151:BE151" si="248">AZ59-(AZ81+AZ82+AZ87+AZ88)</f>
+        <v>-99617</v>
+      </c>
+      <c r="BA151" s="5">
+        <f t="shared" si="248"/>
+        <v>333530</v>
+      </c>
+      <c r="BB151" s="5">
+        <f t="shared" si="248"/>
+        <v>140479</v>
+      </c>
+      <c r="BC151" s="5">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="BD151" s="5">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="BE151" s="5">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
       <c r="BF151" s="5"/>
       <c r="BG151" s="5"/>
       <c r="BH151" s="5"/>
@@ -18825,7 +18518,7 @@
     <row r="152" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -18847,14 +18540,38 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
-      <c r="W152" s="43"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
-      <c r="AA152" s="43"/>
-      <c r="AB152" s="5"/>
-      <c r="AC152" s="5"/>
-      <c r="AD152" s="5"/>
+      <c r="W152" s="43">
+        <f>W75-W94</f>
+        <v>657375</v>
+      </c>
+      <c r="X152" s="5">
+        <f t="shared" ref="X152:AD152" si="249">X75-X94</f>
+        <v>654004</v>
+      </c>
+      <c r="Y152" s="5">
+        <f t="shared" si="249"/>
+        <v>615856</v>
+      </c>
+      <c r="Z152" s="5">
+        <f t="shared" si="249"/>
+        <v>612977</v>
+      </c>
+      <c r="AA152" s="43">
+        <f t="shared" si="249"/>
+        <v>605829</v>
+      </c>
+      <c r="AB152" s="5">
+        <f t="shared" si="249"/>
+        <v>579717</v>
+      </c>
+      <c r="AC152" s="5">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+      <c r="AD152" s="5">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
       <c r="AG152" s="5"/>
@@ -18876,12 +18593,30 @@
       <c r="AW152" s="5"/>
       <c r="AX152" s="5"/>
       <c r="AY152" s="5"/>
-      <c r="AZ152" s="5"/>
-      <c r="BA152" s="5"/>
-      <c r="BB152" s="5"/>
-      <c r="BC152" s="5"/>
-      <c r="BD152" s="5"/>
-      <c r="BE152" s="5"/>
+      <c r="AZ152" s="5">
+        <f t="shared" ref="AZ152:BE152" si="250">AZ75-AZ94</f>
+        <v>15348</v>
+      </c>
+      <c r="BA152" s="5">
+        <f t="shared" si="250"/>
+        <v>686698</v>
+      </c>
+      <c r="BB152" s="5">
+        <f t="shared" si="250"/>
+        <v>612977</v>
+      </c>
+      <c r="BC152" s="5">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="BD152" s="5">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="BE152" s="5">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
       <c r="BF152" s="5"/>
       <c r="BG152" s="5"/>
       <c r="BH152" s="5"/>
@@ -18912,93 +18647,69 @@
       <c r="CG152" s="5"/>
       <c r="CH152" s="5"/>
     </row>
-    <row r="153" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="43"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="43"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
-      <c r="W153" s="43"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
-      <c r="AA153" s="43"/>
-      <c r="AB153" s="5"/>
-      <c r="AC153" s="5"/>
-      <c r="AD153" s="5"/>
-      <c r="AE153" s="5"/>
-      <c r="AF153" s="5"/>
-      <c r="AG153" s="5"/>
-      <c r="AH153" s="5"/>
-      <c r="AI153" s="5"/>
-      <c r="AJ153" s="5"/>
-      <c r="AK153" s="5"/>
-      <c r="AL153" s="5"/>
-      <c r="AM153" s="5"/>
-      <c r="AN153" s="5"/>
-      <c r="AO153" s="5"/>
-      <c r="AP153" s="5"/>
-      <c r="AQ153" s="5"/>
-      <c r="AR153" s="5"/>
-      <c r="AS153" s="5"/>
-      <c r="AT153" s="5"/>
-      <c r="AU153" s="5"/>
-      <c r="AV153" s="5"/>
-      <c r="AW153" s="5"/>
-      <c r="AX153" s="5"/>
-      <c r="AY153" s="5"/>
-      <c r="AZ153" s="5"/>
-      <c r="BA153" s="5"/>
-      <c r="BB153" s="5"/>
-      <c r="BC153" s="5"/>
-      <c r="BD153" s="5"/>
-      <c r="BE153" s="5"/>
-      <c r="BF153" s="5"/>
-      <c r="BG153" s="5"/>
-      <c r="BH153" s="5"/>
-      <c r="BI153" s="5"/>
-      <c r="BJ153" s="5"/>
-      <c r="BK153" s="5"/>
-      <c r="BL153" s="5"/>
-      <c r="BM153" s="5"/>
-      <c r="BN153" s="5"/>
-      <c r="BO153" s="5"/>
-      <c r="BP153" s="5"/>
-      <c r="BQ153" s="5"/>
-      <c r="BR153" s="5"/>
-      <c r="BS153" s="5"/>
-      <c r="BT153" s="5"/>
-      <c r="BU153" s="5"/>
-      <c r="BV153" s="5"/>
-      <c r="BW153" s="5"/>
-      <c r="BX153" s="5"/>
-      <c r="BY153" s="5"/>
-      <c r="BZ153" s="5"/>
-      <c r="CA153" s="5"/>
-      <c r="CB153" s="5"/>
-      <c r="CC153" s="5"/>
-      <c r="CD153" s="5"/>
-      <c r="CE153" s="5"/>
-      <c r="CF153" s="5"/>
-      <c r="CG153" s="5"/>
-      <c r="CH153" s="5"/>
+    <row r="153" spans="1:86" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="E153" s="79"/>
+      <c r="O153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="W153" s="79">
+        <f>W74/W84</f>
+        <v>1.9050223275814544</v>
+      </c>
+      <c r="X153" s="78">
+        <f t="shared" ref="X153:AD153" si="251">X74/X84</f>
+        <v>1.5923247930487356</v>
+      </c>
+      <c r="Y153" s="78">
+        <f t="shared" si="251"/>
+        <v>1.7486531369292817</v>
+      </c>
+      <c r="Z153" s="78">
+        <f t="shared" si="251"/>
+        <v>1.742766700078048</v>
+      </c>
+      <c r="AA153" s="79">
+        <f t="shared" si="251"/>
+        <v>1.8251648047005793</v>
+      </c>
+      <c r="AB153" s="78">
+        <f t="shared" si="251"/>
+        <v>1.9496293259540158</v>
+      </c>
+      <c r="AC153" s="78" t="e">
+        <f t="shared" si="251"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD153" s="78" t="e">
+        <f t="shared" si="251"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ153" s="78">
+        <f t="shared" ref="AZ153:BE153" si="252">AZ74/AZ84</f>
+        <v>1.1718765316458453</v>
+      </c>
+      <c r="BA153" s="78">
+        <f t="shared" si="252"/>
+        <v>1.6440482021025775</v>
+      </c>
+      <c r="BB153" s="78">
+        <f t="shared" si="252"/>
+        <v>1.742766700078048</v>
+      </c>
+      <c r="BC153" s="78" t="e">
+        <f t="shared" si="252"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD153" s="78" t="e">
+        <f t="shared" si="252"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE153" s="78" t="e">
+        <f t="shared" si="252"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="154" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
@@ -21819,6 +21530,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="V33:Z33 V42:Z42 Z44 Z46" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
